--- a/app/src/main/res/raw/pregnancy_outcome_form.xlsx
+++ b/app/src/main/res/raw/pregnancy_outcome_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17670" tabRatio="500"/>
+    <workbookView windowWidth="26265" windowHeight="9390" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
     <t>options</t>
   </si>
   <si>
-    <t>foreach_count</t>
+    <t>repeat_count</t>
   </si>
   <si>
     <t>label</t>
@@ -211,7 +211,7 @@
     <t>childs</t>
   </si>
   <si>
-    <t>start foreach</t>
+    <t>start repeat</t>
   </si>
   <si>
     <t>${numberOfOutcomes}</t>
@@ -289,7 +289,7 @@
     <t>5.6. Relação com o chefe do agregado</t>
   </si>
   <si>
-    <t>end foreach</t>
+    <t>end repeat</t>
   </si>
   <si>
     <t>collected</t>
@@ -552,10 +552,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -608,6 +608,118 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -616,47 +728,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -668,89 +751,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
@@ -777,19 +777,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -801,7 +939,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -813,151 +957,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -973,35 +973,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1017,6 +991,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1047,23 +1045,25 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1071,145 +1071,145 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1603,8 +1603,8 @@
   <sheetPr/>
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>

--- a/app/src/main/res/raw/pregnancy_outcome_form.xlsx
+++ b/app/src/main/res/raw/pregnancy_outcome_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26265" windowHeight="9390" tabRatio="500"/>
+    <workbookView windowWidth="26265" windowHeight="13155" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="170">
   <si>
     <t>group</t>
   </si>
@@ -208,13 +208,16 @@
     <t>3.3.1. Especifique o local onde ocorreu o parto</t>
   </si>
   <si>
+    <t>${birthPlace}='OTHER'</t>
+  </si>
+  <si>
     <t>childs</t>
   </si>
   <si>
     <t>start repeat</t>
   </si>
   <si>
-    <t>${numberOfOutcomes}</t>
+    <t>$child_outcomes</t>
   </si>
   <si>
     <t>5. Relationships of Members with the new Head of Household</t>
@@ -244,6 +247,9 @@
     <t>5.2. Código da criança</t>
   </si>
   <si>
+    <t>${outcomeType}='LBR'</t>
+  </si>
+  <si>
     <t>childName</t>
   </si>
   <si>
@@ -484,9 +490,6 @@
     <t>Aborto induzido</t>
   </si>
   <si>
-    <t>birthingPlace</t>
-  </si>
-  <si>
     <t>HOME</t>
   </si>
   <si>
@@ -538,6 +541,15 @@
     <t>form_name::pt</t>
   </si>
   <si>
+    <t>form_version</t>
+  </si>
+  <si>
+    <t>repeat_name</t>
+  </si>
+  <si>
+    <t>xml_node_name</t>
+  </si>
+  <si>
     <t>rawPregnancyOutcome</t>
   </si>
   <si>
@@ -545,6 +557,9 @@
   </si>
   <si>
     <t>Resultado de gravidez</t>
+  </si>
+  <si>
+    <t>rawPregnancyChild</t>
   </si>
 </sst>
 </file>
@@ -552,10 +567,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -622,8 +637,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -631,7 +653,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -645,6 +667,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -653,16 +691,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -676,22 +706,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -706,38 +723,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -746,6 +740,27 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -762,7 +777,7 @@
       <charset val="0"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -777,55 +792,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -837,127 +954,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -980,6 +1001,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -991,39 +1021,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1054,6 +1051,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1068,145 +1080,154 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1216,7 +1237,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1260,6 +1281,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1270,23 +1292,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1603,8 +1621,8 @@
   <sheetPr/>
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -1612,15 +1630,15 @@
     <col min="1" max="1" width="12.9142857142857" customWidth="1"/>
     <col min="2" max="2" width="11.1428571428571" customWidth="1"/>
     <col min="3" max="3" width="14.1428571428571" customWidth="1"/>
-    <col min="4" max="4" width="20.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="22.247619047619" customWidth="1"/>
     <col min="5" max="5" width="11.7142857142857" customWidth="1"/>
-    <col min="6" max="6" width="19.9904761904762" style="17" customWidth="1"/>
-    <col min="7" max="7" width="20" style="17" customWidth="1"/>
+    <col min="6" max="6" width="19.9904761904762" style="18" customWidth="1"/>
+    <col min="7" max="7" width="24.0761904761905" style="18" customWidth="1"/>
     <col min="8" max="8" width="51.5714285714286" customWidth="1"/>
     <col min="9" max="9" width="55" customWidth="1"/>
     <col min="10" max="11" width="16.352380952381" customWidth="1"/>
     <col min="12" max="12" width="9.28571428571429" customWidth="1"/>
-    <col min="14" max="14" width="31" customWidth="1"/>
+    <col min="14" max="14" width="31" style="1" customWidth="1"/>
     <col min="15" max="15" width="13.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1640,10 +1658,10 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="18" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1664,7 +1682,7 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="18" t="s">
         <v>13</v>
       </c>
       <c r="O1" t="s">
@@ -1677,13 +1695,13 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="19" t="s">
         <v>18</v>
       </c>
       <c r="I2" t="s">
@@ -1697,7 +1715,7 @@
       <c r="M2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="N2" s="17"/>
+      <c r="N2" s="18"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
@@ -1705,15 +1723,15 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="18" t="s">
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="19" t="s">
         <v>21</v>
       </c>
       <c r="I3" t="s">
@@ -1727,7 +1745,7 @@
       <c r="M3" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="N3" s="17"/>
+      <c r="N3" s="18"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
@@ -1739,16 +1757,16 @@
       <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
       <c r="H4" t="s">
         <v>25</v>
       </c>
       <c r="I4" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
       <c r="L4" t="b">
         <v>1</v>
       </c>
@@ -1766,16 +1784,16 @@
       <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
       <c r="H5" t="s">
         <v>28</v>
       </c>
       <c r="I5" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
       <c r="L5" t="b">
         <v>1</v>
       </c>
@@ -1793,16 +1811,16 @@
       <c r="E6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
       <c r="H6" t="s">
         <v>31</v>
       </c>
       <c r="I6" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
       <c r="L6" t="b">
         <v>1</v>
       </c>
@@ -1820,16 +1838,16 @@
       <c r="E7" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
       <c r="H7" t="s">
         <v>34</v>
       </c>
       <c r="I7" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
       <c r="L7" t="b">
         <v>1</v>
       </c>
@@ -1837,7 +1855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="13" customHeight="1" spans="1:12">
+    <row r="8" ht="13" customHeight="1" spans="1:13">
       <c r="A8" s="1"/>
       <c r="D8" t="s">
         <v>36</v>
@@ -1845,17 +1863,20 @@
       <c r="E8" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
       <c r="H8" t="s">
         <v>38</v>
       </c>
       <c r="I8" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
       <c r="L8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1867,16 +1888,16 @@
       <c r="E9" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
       <c r="H9" t="s">
         <v>42</v>
       </c>
       <c r="I9" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
       <c r="L9" t="b">
         <v>1</v>
       </c>
@@ -1889,23 +1910,23 @@
       <c r="E10" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="24"/>
+      <c r="G10" s="25"/>
       <c r="H10" t="s">
         <v>47</v>
       </c>
       <c r="I10" t="s">
         <v>48</v>
       </c>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
       <c r="L10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" ht="12" customHeight="1" spans="1:14">
       <c r="A11" s="1"/>
       <c r="D11" t="s">
         <v>49</v>
@@ -1913,235 +1934,250 @@
       <c r="E11" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
       <c r="H11" t="s">
         <v>50</v>
       </c>
       <c r="I11" t="s">
         <v>51</v>
       </c>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
       <c r="L11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
+      <c r="N11" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" s="17" customFormat="1" spans="1:15">
+      <c r="A12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="26" t="s">
+      <c r="F12" s="26"/>
+      <c r="G12" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="I12" s="26" t="s">
+      <c r="H12" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="I12" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" s="21"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="21"/>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="22"/>
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="17" t="s">
-        <v>58</v>
+      <c r="F13" s="18" t="s">
+        <v>59</v>
       </c>
       <c r="H13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I13" t="s">
-        <v>60</v>
-      </c>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
+        <v>61</v>
+      </c>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
       <c r="L13" t="b">
         <v>1</v>
       </c>
-      <c r="M13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="22"/>
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
-      <c r="D14" t="s">
-        <v>61</v>
+      <c r="D14" s="24" t="s">
+        <v>62</v>
       </c>
       <c r="E14" t="s">
         <v>17</v>
       </c>
       <c r="H14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I14" t="s">
-        <v>63</v>
-      </c>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
+        <v>64</v>
+      </c>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
       <c r="L14" t="b">
         <v>1</v>
       </c>
       <c r="M14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="N14" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="22"/>
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E15" t="s">
         <v>17</v>
       </c>
       <c r="H15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" t="b">
+        <v>1</v>
+      </c>
+      <c r="N15" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I15" t="s">
-        <v>66</v>
-      </c>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="22"/>
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="17" t="s">
-        <v>68</v>
+      <c r="F16" s="18" t="s">
+        <v>70</v>
       </c>
       <c r="H16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I16" t="s">
-        <v>70</v>
-      </c>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
+        <v>72</v>
+      </c>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
       <c r="L16" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="N16" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="22"/>
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E17" t="s">
         <v>37</v>
       </c>
       <c r="H17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I17" t="s">
-        <v>73</v>
-      </c>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
+        <v>75</v>
+      </c>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
       <c r="L17" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="N17" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="22"/>
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
-      <c r="D18" t="s">
-        <v>74</v>
+      <c r="D18" s="24" t="s">
+        <v>76</v>
       </c>
       <c r="E18" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>78</v>
       </c>
       <c r="H18" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I18" t="s">
-        <v>78</v>
-      </c>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
+        <v>80</v>
+      </c>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
       <c r="L18" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
+      <c r="N18" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" s="17" customFormat="1" spans="1:15">
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
       <c r="D19" s="21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
+        <v>81</v>
+      </c>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="21"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H20" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I20" t="s">
-        <v>84</v>
-      </c>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
+        <v>86</v>
+      </c>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
       <c r="L20" t="b">
         <v>1</v>
       </c>
@@ -2151,22 +2187,22 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D21" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E21" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I21" t="s">
-        <v>88</v>
-      </c>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
+        <v>90</v>
+      </c>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
       <c r="L21" t="b">
         <v>1</v>
       </c>
@@ -2176,22 +2212,22 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D22" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E22" t="s">
         <v>17</v>
       </c>
       <c r="H22" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I22" t="s">
-        <v>91</v>
-      </c>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
+        <v>93</v>
+      </c>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
       <c r="L22" t="b">
         <v>1</v>
       </c>
@@ -2201,23 +2237,23 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1"/>
@@ -2265,7 +2301,7 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="A19" sqref="A19:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -2281,7 +2317,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2295,317 +2331,317 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B2" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B3" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="10" t="s">
-        <v>144</v>
+        <v>46</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="10" t="s">
-        <v>144</v>
+        <v>46</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D20" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="10" t="s">
-        <v>144</v>
+        <v>46</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="10" t="s">
-        <v>144</v>
+        <v>46</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D22" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="10" t="s">
-        <v>144</v>
+        <v>46</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2740,39 +2776,59 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="21.7142857142857" customWidth="1"/>
     <col min="2" max="2" width="28.2857142857143" customWidth="1"/>
     <col min="3" max="3" width="29.7142857142857" customWidth="1"/>
+    <col min="4" max="5" width="12.5714285714286" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>162</v>
+      </c>
+      <c r="D1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>168</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/res/raw/pregnancy_outcome_form.xlsx
+++ b/app/src/main/res/raw/pregnancy_outcome_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26265" windowHeight="13155" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="12330" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -1621,8 +1621,8 @@
   <sheetPr/>
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>

--- a/app/src/main/res/raw/pregnancy_outcome_form.xlsx
+++ b/app/src/main/res/raw/pregnancy_outcome_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12330" tabRatio="500"/>
+    <workbookView windowHeight="10740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -220,10 +220,10 @@
     <t>$child_outcomes</t>
   </si>
   <si>
-    <t>5. Relationships of Members with the new Head of Household</t>
-  </si>
-  <si>
-    <t>5. Relação dos membros com o novo chefe do agregado</t>
+    <t>5. Childs Outcomes</t>
+  </si>
+  <si>
+    <t>5. Crianças Nascidas</t>
   </si>
   <si>
     <t>outcomeType</t>
@@ -567,10 +567,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -631,32 +631,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -683,11 +660,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -699,7 +676,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -708,7 +685,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -723,7 +700,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -737,14 +736,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Arial"/>
@@ -752,15 +743,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -798,187 +798,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1006,21 +1006,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1051,6 +1036,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1061,21 +1076,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1092,142 +1092,142 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1622,7 +1622,7 @@
   <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -2301,7 +2301,7 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:A23"/>
+      <selection activeCell="A15" sqref="A15:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>

--- a/app/src/main/res/raw/pregnancy_outcome_form.xlsx
+++ b/app/src/main/res/raw/pregnancy_outcome_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="10740" tabRatio="500"/>
+    <workbookView windowWidth="29655" windowHeight="10605" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="173">
   <si>
     <t>group</t>
   </si>
@@ -247,9 +247,6 @@
     <t>5.2. Código da criança</t>
   </si>
   <si>
-    <t>${outcomeType}='LBR'</t>
-  </si>
-  <si>
     <t>childName</t>
   </si>
   <si>
@@ -368,6 +365,18 @@
   </si>
   <si>
     <t>Feminino</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Not Known</t>
+  </si>
+  <si>
+    <t>Desconhecido</t>
+  </si>
+  <si>
+    <t>${outcomeType}!='LBR'</t>
   </si>
   <si>
     <t>HOH</t>
@@ -567,10 +576,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -615,14 +624,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -638,7 +639,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -649,14 +682,6 @@
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -676,51 +701,20 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Arial"/>
@@ -737,22 +731,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -760,7 +769,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -786,13 +795,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="1" tint="0.5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,13 +855,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,61 +873,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -894,91 +963,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1001,11 +1010,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1027,26 +1042,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1062,6 +1060,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1083,161 +1090,163 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1246,6 +1255,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1278,6 +1293,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1288,23 +1307,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1621,8 +1639,8 @@
   <sheetPr/>
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F16" sqref="$A16:$XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -1632,8 +1650,8 @@
     <col min="3" max="3" width="14.1428571428571" customWidth="1"/>
     <col min="4" max="4" width="22.247619047619" customWidth="1"/>
     <col min="5" max="5" width="11.7142857142857" customWidth="1"/>
-    <col min="6" max="6" width="19.9904761904762" style="18" customWidth="1"/>
-    <col min="7" max="7" width="24.0761904761905" style="18" customWidth="1"/>
+    <col min="6" max="6" width="19.9904761904762" style="22" customWidth="1"/>
+    <col min="7" max="7" width="24.0761904761905" style="22" customWidth="1"/>
     <col min="8" max="8" width="51.5714285714286" customWidth="1"/>
     <col min="9" max="9" width="55" customWidth="1"/>
     <col min="10" max="11" width="16.352380952381" customWidth="1"/>
@@ -1658,10 +1676,10 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="22" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1682,7 +1700,7 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="22" t="s">
         <v>13</v>
       </c>
       <c r="O1" t="s">
@@ -1695,13 +1713,13 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="23" t="s">
         <v>18</v>
       </c>
       <c r="I2" t="s">
@@ -1715,7 +1733,7 @@
       <c r="M2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="N2" s="18"/>
+      <c r="N2" s="22"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
@@ -1723,15 +1741,15 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="19" t="s">
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="23" t="s">
         <v>21</v>
       </c>
       <c r="I3" t="s">
@@ -1745,7 +1763,7 @@
       <c r="M3" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="N3" s="18"/>
+      <c r="N3" s="22"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
@@ -1757,16 +1775,16 @@
       <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
       <c r="H4" t="s">
         <v>25</v>
       </c>
       <c r="I4" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
       <c r="L4" t="b">
         <v>1</v>
       </c>
@@ -1784,16 +1802,16 @@
       <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
       <c r="H5" t="s">
         <v>28</v>
       </c>
       <c r="I5" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
       <c r="L5" t="b">
         <v>1</v>
       </c>
@@ -1811,16 +1829,16 @@
       <c r="E6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
       <c r="H6" t="s">
         <v>31</v>
       </c>
       <c r="I6" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
       <c r="L6" t="b">
         <v>1</v>
       </c>
@@ -1838,16 +1856,16 @@
       <c r="E7" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
       <c r="H7" t="s">
         <v>34</v>
       </c>
       <c r="I7" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
       <c r="L7" t="b">
         <v>1</v>
       </c>
@@ -1863,16 +1881,16 @@
       <c r="E8" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
       <c r="H8" t="s">
         <v>38</v>
       </c>
       <c r="I8" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
       <c r="L8" t="b">
         <v>1</v>
       </c>
@@ -1888,16 +1906,16 @@
       <c r="E9" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
       <c r="H9" t="s">
         <v>42</v>
       </c>
       <c r="I9" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
       <c r="L9" t="b">
         <v>1</v>
       </c>
@@ -1910,18 +1928,18 @@
       <c r="E10" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="25"/>
+      <c r="G10" s="28"/>
       <c r="H10" t="s">
         <v>47</v>
       </c>
       <c r="I10" t="s">
         <v>48</v>
       </c>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
       <c r="L10" t="b">
         <v>1</v>
       </c>
@@ -1934,16 +1952,16 @@
       <c r="E11" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
       <c r="H11" t="s">
         <v>50</v>
       </c>
       <c r="I11" t="s">
         <v>51</v>
       </c>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
       <c r="L11" t="b">
         <v>1</v>
       </c>
@@ -1951,46 +1969,46 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" s="17" customFormat="1" spans="1:15">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21" t="s">
+    <row r="12" s="21" customFormat="1" spans="1:15">
+      <c r="A12" s="24"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26" t="s">
+      <c r="F12" s="29"/>
+      <c r="G12" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I12" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="M12" s="21"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="21"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" s="25"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="25"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
       <c r="D13" t="s">
         <v>58</v>
       </c>
       <c r="E13" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="22" t="s">
         <v>59</v>
       </c>
       <c r="H13" t="s">
@@ -1999,17 +2017,17 @@
       <c r="I13" t="s">
         <v>61</v>
       </c>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
       <c r="L13" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="24" t="s">
+    <row r="14" spans="1:13">
+      <c r="A14" s="26"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="19" t="s">
         <v>62</v>
       </c>
       <c r="E14" t="s">
@@ -2021,163 +2039,148 @@
       <c r="I14" t="s">
         <v>64</v>
       </c>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
       <c r="L14" t="b">
         <v>1</v>
       </c>
       <c r="M14" t="b">
         <v>1</v>
       </c>
-      <c r="N14" s="1" t="s">
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="26"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="22"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" t="s">
-        <v>66</v>
       </c>
       <c r="E15" t="s">
         <v>17</v>
       </c>
       <c r="H15" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" t="s">
         <v>67</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="26"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" t="s">
         <v>68</v>
-      </c>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" t="b">
-        <v>1</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="22"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" t="s">
-        <v>69</v>
       </c>
       <c r="E16" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" t="s">
         <v>70</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>71</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="26"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" t="s">
         <v>72</v>
-      </c>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" t="b">
-        <v>1</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" t="s">
-        <v>73</v>
       </c>
       <c r="E17" t="s">
         <v>37</v>
       </c>
       <c r="H17" t="s">
+        <v>73</v>
+      </c>
+      <c r="I17" t="s">
         <v>74</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="26"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" t="b">
-        <v>1</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="22"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="24" t="s">
+      <c r="E18" t="s">
         <v>76</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="H18" t="s">
         <v>78</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>79</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" s="21" customFormat="1" spans="1:15">
+      <c r="A19" s="24"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" t="b">
-        <v>1</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" s="17" customFormat="1" spans="1:15">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="21"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="25"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" t="s">
         <v>82</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>83</v>
       </c>
-      <c r="E20" t="s">
+      <c r="H20" t="s">
         <v>84</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>85</v>
       </c>
-      <c r="I20" t="s">
-        <v>86</v>
-      </c>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
       <c r="L20" t="b">
         <v>1</v>
       </c>
@@ -2187,22 +2190,22 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" t="s">
         <v>87</v>
       </c>
-      <c r="E21" t="s">
+      <c r="H21" t="s">
         <v>88</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>89</v>
       </c>
-      <c r="I21" t="s">
-        <v>90</v>
-      </c>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
       <c r="L21" t="b">
         <v>1</v>
       </c>
@@ -2212,22 +2215,22 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E22" t="s">
         <v>17</v>
       </c>
       <c r="H22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I22" t="s">
         <v>92</v>
       </c>
-      <c r="I22" t="s">
-        <v>93</v>
-      </c>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
       <c r="L22" t="b">
         <v>1</v>
       </c>
@@ -2237,23 +2240,23 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1"/>
@@ -2298,26 +2301,27 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="13.7142857142857" customWidth="1"/>
     <col min="2" max="2" width="25.8571428571429" style="1" customWidth="1"/>
     <col min="3" max="4" width="32.2857142857143" customWidth="1"/>
     <col min="5" max="5" width="13.1428571428571" customWidth="1"/>
+    <col min="6" max="6" width="21.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2328,274 +2332,281 @@
       <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F1" s="18" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>96</v>
-      </c>
-      <c r="D2" t="s">
-        <v>97</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" t="s">
         <v>98</v>
-      </c>
-      <c r="D3" t="s">
-        <v>99</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="4"/>
+      <c r="F6" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="E6" s="16" t="s">
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="20" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="8" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="8" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="8" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="8" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="8" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="8" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="7" t="s">
+      <c r="B16" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="7" t="s">
+      <c r="B17" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="7" t="s">
+      <c r="B18" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="9" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="12" t="s">
         <v>46</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="14" t="s">
         <v>150</v>
       </c>
       <c r="D20" t="s">
@@ -2603,13 +2614,13 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="14" t="s">
         <v>153</v>
       </c>
       <c r="D21" t="s">
@@ -2617,13 +2628,13 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="14" t="s">
         <v>156</v>
       </c>
       <c r="D22" t="s">
@@ -2631,140 +2642,152 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="14" t="s">
         <v>159</v>
       </c>
       <c r="D23" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="10"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="12"/>
+      <c r="B24" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="10"/>
-      <c r="E25" s="12"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="4"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="12"/>
+      <c r="A26" s="12"/>
+      <c r="E26" s="14"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="4"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
       <c r="E27" s="14"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="4"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="12"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="16"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="4"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="12"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="14"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="4"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="12"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="14"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
       <c r="E31" s="14"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="10"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="16"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="10"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="10"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="10"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="10"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-    </row>
-    <row r="39" spans="5:5">
-      <c r="E39" s="12"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="12"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
     </row>
     <row r="40" spans="5:5">
-      <c r="E40" s="12"/>
+      <c r="E40" s="14"/>
     </row>
     <row r="41" spans="5:5">
-      <c r="E41" s="12"/>
+      <c r="E41" s="14"/>
     </row>
     <row r="42" spans="5:5">
       <c r="E42" s="14"/>
     </row>
     <row r="43" spans="5:5">
-      <c r="E43" s="12"/>
+      <c r="E43" s="16"/>
     </row>
     <row r="44" spans="5:5">
-      <c r="E44" s="12"/>
+      <c r="E44" s="14"/>
     </row>
     <row r="45" spans="5:5">
-      <c r="E45" s="12"/>
+      <c r="E45" s="14"/>
     </row>
     <row r="46" spans="5:5">
-      <c r="E46" s="12"/>
+      <c r="E46" s="14"/>
     </row>
     <row r="47" spans="5:5">
-      <c r="E47" s="12"/>
+      <c r="E47" s="14"/>
+    </row>
+    <row r="48" spans="5:5">
+      <c r="E48" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2793,33 +2816,33 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -2828,7 +2851,7 @@
         <v>53</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/res/raw/pregnancy_outcome_form.xlsx
+++ b/app/src/main/res/raw/pregnancy_outcome_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29655" windowHeight="10605" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="21045" windowHeight="6555" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -367,10 +367,10 @@
     <t>Feminino</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Not Known</t>
+    <t>UNK</t>
+  </si>
+  <si>
+    <t>Unknown</t>
   </si>
   <si>
     <t>Desconhecido</t>
@@ -576,10 +576,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -624,6 +624,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -632,30 +640,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -678,14 +663,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Arial"/>
@@ -694,29 +671,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -730,16 +692,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -754,7 +732,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -769,7 +747,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -807,187 +807,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -998,15 +998,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1021,6 +1012,65 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1043,210 +1093,160 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1291,9 +1291,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1650,8 +1647,8 @@
     <col min="3" max="3" width="14.1428571428571" customWidth="1"/>
     <col min="4" max="4" width="22.247619047619" customWidth="1"/>
     <col min="5" max="5" width="11.7142857142857" customWidth="1"/>
-    <col min="6" max="6" width="19.9904761904762" style="22" customWidth="1"/>
-    <col min="7" max="7" width="24.0761904761905" style="22" customWidth="1"/>
+    <col min="6" max="6" width="19.9904761904762" style="21" customWidth="1"/>
+    <col min="7" max="7" width="24.0761904761905" style="21" customWidth="1"/>
     <col min="8" max="8" width="51.5714285714286" customWidth="1"/>
     <col min="9" max="9" width="55" customWidth="1"/>
     <col min="10" max="11" width="16.352380952381" customWidth="1"/>
@@ -1676,10 +1673,10 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1700,7 +1697,7 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="21" t="s">
         <v>13</v>
       </c>
       <c r="O1" t="s">
@@ -1713,13 +1710,13 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="22" t="s">
         <v>18</v>
       </c>
       <c r="I2" t="s">
@@ -1733,7 +1730,7 @@
       <c r="M2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="N2" s="22"/>
+      <c r="N2" s="21"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
@@ -1741,15 +1738,15 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="23" t="s">
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="22" t="s">
         <v>21</v>
       </c>
       <c r="I3" t="s">
@@ -1763,7 +1760,7 @@
       <c r="M3" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="N3" s="22"/>
+      <c r="N3" s="21"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
@@ -1775,16 +1772,16 @@
       <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
       <c r="H4" t="s">
         <v>25</v>
       </c>
       <c r="I4" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
       <c r="L4" t="b">
         <v>1</v>
       </c>
@@ -1802,16 +1799,16 @@
       <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
       <c r="H5" t="s">
         <v>28</v>
       </c>
       <c r="I5" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
       <c r="L5" t="b">
         <v>1</v>
       </c>
@@ -1829,16 +1826,16 @@
       <c r="E6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
       <c r="H6" t="s">
         <v>31</v>
       </c>
       <c r="I6" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
       <c r="L6" t="b">
         <v>1</v>
       </c>
@@ -1856,16 +1853,16 @@
       <c r="E7" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
       <c r="H7" t="s">
         <v>34</v>
       </c>
       <c r="I7" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
       <c r="L7" t="b">
         <v>1</v>
       </c>
@@ -1881,16 +1878,16 @@
       <c r="E8" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
       <c r="H8" t="s">
         <v>38</v>
       </c>
       <c r="I8" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
       <c r="L8" t="b">
         <v>1</v>
       </c>
@@ -1906,16 +1903,16 @@
       <c r="E9" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
       <c r="H9" t="s">
         <v>42</v>
       </c>
       <c r="I9" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
       <c r="L9" t="b">
         <v>1</v>
       </c>
@@ -1928,18 +1925,18 @@
       <c r="E10" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="28"/>
+      <c r="G10" s="27"/>
       <c r="H10" t="s">
         <v>47</v>
       </c>
       <c r="I10" t="s">
         <v>48</v>
       </c>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
       <c r="L10" t="b">
         <v>1</v>
       </c>
@@ -1952,16 +1949,16 @@
       <c r="E11" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
       <c r="H11" t="s">
         <v>50</v>
       </c>
       <c r="I11" t="s">
         <v>51</v>
       </c>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
       <c r="L11" t="b">
         <v>1</v>
       </c>
@@ -1969,46 +1966,46 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" s="21" customFormat="1" spans="1:15">
-      <c r="A12" s="24"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25" t="s">
+    <row r="12" s="20" customFormat="1" spans="1:15">
+      <c r="A12" s="23"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29" t="s">
+      <c r="F12" s="28"/>
+      <c r="G12" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="25" t="s">
+      <c r="I12" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="M12" s="25"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="25"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" s="24"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="24"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="26"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
       <c r="D13" t="s">
         <v>58</v>
       </c>
       <c r="E13" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="21" t="s">
         <v>59</v>
       </c>
       <c r="H13" t="s">
@@ -2017,17 +2014,17 @@
       <c r="I13" t="s">
         <v>61</v>
       </c>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
       <c r="L13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="26"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="19" t="s">
+      <c r="A14" s="25"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="18" t="s">
         <v>62</v>
       </c>
       <c r="E14" t="s">
@@ -2039,8 +2036,8 @@
       <c r="I14" t="s">
         <v>64</v>
       </c>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
       <c r="L14" t="b">
         <v>1</v>
       </c>
@@ -2049,9 +2046,9 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="26"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
       <c r="D15" t="s">
         <v>65</v>
       </c>
@@ -2064,23 +2061,23 @@
       <c r="I15" t="s">
         <v>67</v>
       </c>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
       <c r="L15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="26"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
       <c r="D16" t="s">
         <v>68</v>
       </c>
       <c r="E16" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="21" t="s">
         <v>69</v>
       </c>
       <c r="H16" t="s">
@@ -2089,16 +2086,16 @@
       <c r="I16" t="s">
         <v>71</v>
       </c>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
       <c r="L16" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="26"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
       <c r="D17" t="s">
         <v>72</v>
       </c>
@@ -2111,23 +2108,23 @@
       <c r="I17" t="s">
         <v>74</v>
       </c>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
       <c r="L17" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="26"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="19" t="s">
+      <c r="A18" s="25"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="18" t="s">
         <v>75</v>
       </c>
       <c r="E18" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="21" t="s">
         <v>77</v>
       </c>
       <c r="H18" t="s">
@@ -2136,32 +2133,32 @@
       <c r="I18" t="s">
         <v>79</v>
       </c>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
       <c r="L18" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="19" s="21" customFormat="1" spans="1:15">
-      <c r="A19" s="24"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25" t="s">
+    <row r="19" s="20" customFormat="1" spans="1:15">
+      <c r="A19" s="23"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="25"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="24"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
@@ -2179,8 +2176,8 @@
       <c r="I20" t="s">
         <v>85</v>
       </c>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
       <c r="L20" t="b">
         <v>1</v>
       </c>
@@ -2204,8 +2201,8 @@
       <c r="I21" t="s">
         <v>89</v>
       </c>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
       <c r="L21" t="b">
         <v>1</v>
       </c>
@@ -2229,8 +2226,8 @@
       <c r="I22" t="s">
         <v>92</v>
       </c>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
       <c r="L22" t="b">
         <v>1</v>
       </c>
@@ -2240,23 +2237,23 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1"/>
@@ -2304,7 +2301,7 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="5"/>
@@ -2332,7 +2329,7 @@
       <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2410,7 +2407,7 @@
         <v>107</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="18" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2427,7 +2424,7 @@
       <c r="D7" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="19" t="s">
         <v>112</v>
       </c>
     </row>

--- a/app/src/main/res/raw/pregnancy_outcome_form.xlsx
+++ b/app/src/main/res/raw/pregnancy_outcome_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21045" windowHeight="6555" tabRatio="500" activeTab="1"/>
+    <workbookView windowHeight="14055" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -21,14 +21,14 @@
     <author>paul</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Times New Roman"/>
-            <charset val="0"/>
+            <charset val="134"/>
           </rPr>
           <t>paul:</t>
         </r>
@@ -36,7 +36,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Times New Roman"/>
-            <charset val="0"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 The option is readonly, not choosable.
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="218">
   <si>
     <t>group</t>
   </si>
@@ -79,6 +79,9 @@
     <t>label::pt</t>
   </si>
   <si>
+    <t>label::fr</t>
+  </si>
+  <si>
     <t>default_value</t>
   </si>
   <si>
@@ -112,13 +115,19 @@
     <t>1.0. Código da Visita</t>
   </si>
   <si>
+    <t>1.0. Code de la visite</t>
+  </si>
+  <si>
     <t>code</t>
   </si>
   <si>
     <t>1.1. Pregnancy Registration Code</t>
   </si>
   <si>
-    <t>1.1. Código do Registro de Gravidez</t>
+    <t>1.1. Código do Registo de Gravidez</t>
+  </si>
+  <si>
+    <t>1.1. Code d'enregistrement de la grossesse</t>
   </si>
   <si>
     <t>parents</t>
@@ -133,6 +142,9 @@
     <t>2.1. Códido da Mãe</t>
   </si>
   <si>
+    <t>2.1. Code de la mère</t>
+  </si>
+  <si>
     <t>motherName</t>
   </si>
   <si>
@@ -142,6 +154,9 @@
     <t>2.2. Nome da Mãe</t>
   </si>
   <si>
+    <t>2.2. Nom de la mère</t>
+  </si>
+  <si>
     <t>fatherCode</t>
   </si>
   <si>
@@ -151,6 +166,9 @@
     <t>2.3. Códido do Pai</t>
   </si>
   <si>
+    <t>2.3. Code du père</t>
+  </si>
+  <si>
     <t>fatherName</t>
   </si>
   <si>
@@ -160,6 +178,9 @@
     <t>2.4. Nome do Pai</t>
   </si>
   <si>
+    <t>2.4. Le nom du père</t>
+  </si>
+  <si>
     <t>numberOfOutcomes</t>
   </si>
   <si>
@@ -172,6 +193,9 @@
     <t>3.1. Número de bebês nascidos?</t>
   </si>
   <si>
+    <t>3.1. Nombre de bébés nés?</t>
+  </si>
+  <si>
     <t>outcomeDate</t>
   </si>
   <si>
@@ -184,6 +208,9 @@
     <t>3.2. Data do parto/resultado da gravidez?</t>
   </si>
   <si>
+    <t>3.2. Date d'accouchement/résultat de la grossesse?</t>
+  </si>
+  <si>
     <t>birthPlace</t>
   </si>
   <si>
@@ -199,6 +226,9 @@
     <t>3.3. Onde ocorreu o parto?</t>
   </si>
   <si>
+    <t>3.3. Où la naissance a-t-elle eu lieu?</t>
+  </si>
+  <si>
     <t>birthPlaceOther</t>
   </si>
   <si>
@@ -208,6 +238,9 @@
     <t>3.3.1. Especifique o local onde ocorreu o parto</t>
   </si>
   <si>
+    <t>3.3.1. Précisez le lieu où a eu lieu la naissance</t>
+  </si>
+  <si>
     <t>${birthPlace}='OTHER'</t>
   </si>
   <si>
@@ -220,12 +253,15 @@
     <t>$child_outcomes</t>
   </si>
   <si>
-    <t>5. Childs Outcomes</t>
+    <t>5. Child's Outcomes</t>
   </si>
   <si>
     <t>5. Crianças Nascidas</t>
   </si>
   <si>
+    <t>5. Enfants nés</t>
+  </si>
+  <si>
     <t>outcomeType</t>
   </si>
   <si>
@@ -238,6 +274,9 @@
     <t>5.1. Tipo de resultado da gravidez</t>
   </si>
   <si>
+    <t>5.1. Type de résultat de la grossesse</t>
+  </si>
+  <si>
     <t>childCode</t>
   </si>
   <si>
@@ -247,6 +286,9 @@
     <t>5.2. Código da criança</t>
   </si>
   <si>
+    <t>5.2. Code de l'enfant</t>
+  </si>
+  <si>
     <t>childName</t>
   </si>
   <si>
@@ -256,6 +298,9 @@
     <t>5.3. Nome da criança</t>
   </si>
   <si>
+    <t>5.3. Nom de l'enfant</t>
+  </si>
+  <si>
     <t>childGender</t>
   </si>
   <si>
@@ -268,6 +313,9 @@
     <t>5.4. Sexo da criança</t>
   </si>
   <si>
+    <t>5.4. Sexe de l'enfant</t>
+  </si>
+  <si>
     <t>childOrdinalPosition</t>
   </si>
   <si>
@@ -277,6 +325,9 @@
     <t>5.5. Qual é a posição ordinal desta criança?</t>
   </si>
   <si>
+    <t>5.5. Quelle est la position ordinale de cet enfant?</t>
+  </si>
+  <si>
     <t>headRelationshipType</t>
   </si>
   <si>
@@ -292,6 +343,9 @@
     <t>5.6. Relação com o chefe do agregado</t>
   </si>
   <si>
+    <t>5.6. Relation avec le chef de ménage</t>
+  </si>
+  <si>
     <t>end repeat</t>
   </si>
   <si>
@@ -307,7 +361,10 @@
     <t>6.1. Collected By Fieldworker</t>
   </si>
   <si>
-    <t>6.1. Códido do Inquiridor</t>
+    <t>6.1. Código do Inquiridor</t>
+  </si>
+  <si>
+    <t>6.1. Code de l'enquêteur</t>
   </si>
   <si>
     <t>collectedDate</t>
@@ -322,6 +379,9 @@
     <t>6.2. Data da Visita</t>
   </si>
   <si>
+    <t>6.2. Date de la visite</t>
+  </si>
+  <si>
     <t>modules</t>
   </si>
   <si>
@@ -331,6 +391,9 @@
     <t>Acesso permitido aos Módulos</t>
   </si>
   <si>
+    <t>Accès aux modules autorisé</t>
+  </si>
+  <si>
     <t>value</t>
   </si>
   <si>
@@ -343,12 +406,18 @@
     <t>Sim</t>
   </si>
   <si>
+    <t>Oui</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
     <t>Não</t>
   </si>
   <si>
+    <t>Non</t>
+  </si>
+  <si>
     <t>M</t>
   </si>
   <si>
@@ -358,6 +427,9 @@
     <t>Masculino</t>
   </si>
   <si>
+    <t>Masculin</t>
+  </si>
+  <si>
     <t>F</t>
   </si>
   <si>
@@ -367,6 +439,9 @@
     <t>Feminino</t>
   </si>
   <si>
+    <t>Féminin</t>
+  </si>
+  <si>
     <t>UNK</t>
   </si>
   <si>
@@ -376,6 +451,9 @@
     <t>Desconhecido</t>
   </si>
   <si>
+    <t>Inconnu</t>
+  </si>
+  <si>
     <t>${outcomeType}!='LBR'</t>
   </si>
   <si>
@@ -388,6 +466,9 @@
     <t>Chefe do Agregado</t>
   </si>
   <si>
+    <t>Chef de ménage</t>
+  </si>
+  <si>
     <t>true</t>
   </si>
   <si>
@@ -397,7 +478,10 @@
     <t>Spouse</t>
   </si>
   <si>
-    <t>Esposo/a</t>
+    <t>Cônjuge</t>
+  </si>
+  <si>
+    <t>Conjoint</t>
   </si>
   <si>
     <t>SON</t>
@@ -409,6 +493,9 @@
     <t>Filho/Filha</t>
   </si>
   <si>
+    <t>Fils/fille</t>
+  </si>
+  <si>
     <t>BRO</t>
   </si>
   <si>
@@ -418,6 +505,9 @@
     <t>Irmão/Irmã</t>
   </si>
   <si>
+    <t>Frère/Sœur</t>
+  </si>
+  <si>
     <t>PAR</t>
   </si>
   <si>
@@ -427,6 +517,9 @@
     <t>Pai/Mãe</t>
   </si>
   <si>
+    <t>Père/Mère</t>
+  </si>
+  <si>
     <t>GCH</t>
   </si>
   <si>
@@ -436,33 +529,45 @@
     <t>Neto/a</t>
   </si>
   <si>
+    <t>Petits-enfants</t>
+  </si>
+  <si>
     <t>NOR</t>
   </si>
   <si>
-    <t>Not Related</t>
+    <t>Not related</t>
   </si>
   <si>
     <t>Sem relação</t>
   </si>
   <si>
+    <t>Aucune relation</t>
+  </si>
+  <si>
     <t>OTH</t>
   </si>
   <si>
-    <t>Other Relative</t>
+    <t>Other relative</t>
   </si>
   <si>
     <t>Outro parente</t>
   </si>
   <si>
+    <t>Autre parent</t>
+  </si>
+  <si>
     <t>DNK</t>
   </si>
   <si>
-    <t>Don't Know</t>
+    <t>Don't know</t>
   </si>
   <si>
     <t>Não sabe</t>
   </si>
   <si>
+    <t>Ne sait pas</t>
+  </si>
+  <si>
     <t>LBR</t>
   </si>
   <si>
@@ -472,6 +577,9 @@
     <t>Nascido Vivo</t>
   </si>
   <si>
+    <t>Né vivant</t>
+  </si>
+  <si>
     <t>SBR</t>
   </si>
   <si>
@@ -481,6 +589,9 @@
     <t>Nado morto</t>
   </si>
   <si>
+    <t>Enfant mort-né</t>
+  </si>
+  <si>
     <t>MIS</t>
   </si>
   <si>
@@ -490,6 +601,9 @@
     <t>Aborto Espontâneo</t>
   </si>
   <si>
+    <t>Avortement spontané</t>
+  </si>
+  <si>
     <t>ABT</t>
   </si>
   <si>
@@ -499,6 +613,9 @@
     <t>Aborto induzido</t>
   </si>
   <si>
+    <t>Avortement provoqué</t>
+  </si>
+  <si>
     <t>HOME</t>
   </si>
   <si>
@@ -508,6 +625,9 @@
     <t>Em casa</t>
   </si>
   <si>
+    <t>À la maison</t>
+  </si>
+  <si>
     <t>HOSPITAL</t>
   </si>
   <si>
@@ -517,6 +637,9 @@
     <t>Unidade Sanitaria/Hospital Público</t>
   </si>
   <si>
+    <t>Unité sanitaire/Hôpital public</t>
+  </si>
+  <si>
     <t>TRADITIONAL_MIDWIFE</t>
   </si>
   <si>
@@ -526,13 +649,19 @@
     <t>Em casa da parteira tradicional</t>
   </si>
   <si>
+    <t>Chez la sage-femme traditionnelle</t>
+  </si>
+  <si>
     <t>HEALTHCENTERCLINIC</t>
   </si>
   <si>
     <t>Health Center or Clinic</t>
   </si>
   <si>
-    <t>Centro de Saúde/Clinica Privada</t>
+    <t>Centro de Saúde/Clínica Privada</t>
+  </si>
+  <si>
+    <t>Centre de santé/clinique privée</t>
   </si>
   <si>
     <t xml:space="preserve">OTHER </t>
@@ -550,6 +679,9 @@
     <t>form_name::pt</t>
   </si>
   <si>
+    <t>form_name::fr</t>
+  </si>
+  <si>
     <t>form_version</t>
   </si>
   <si>
@@ -566,6 +698,9 @@
   </si>
   <si>
     <t>Resultado de gravidez</t>
+  </si>
+  <si>
+    <t>Résultat de grossesse</t>
   </si>
   <si>
     <t>rawPregnancyChild</t>
@@ -576,12 +711,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -591,16 +726,11 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -624,9 +754,27 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -639,13 +787,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -654,9 +795,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -671,61 +827,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -739,23 +849,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -775,15 +870,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="Times New Roman"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="35">
@@ -801,7 +942,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.5"/>
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -813,31 +1074,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,13 +1104,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,73 +1122,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -943,61 +1132,28 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1026,6 +1182,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1049,17 +1235,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1074,187 +1254,164 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1263,63 +1420,62 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1634,30 +1790,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F16" sqref="$A16:$XFD16"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="J26" sqref="A5:J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="12.9142857142857" customWidth="1"/>
-    <col min="2" max="2" width="11.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="14.1428571428571" customWidth="1"/>
-    <col min="4" max="4" width="22.247619047619" customWidth="1"/>
-    <col min="5" max="5" width="11.7142857142857" customWidth="1"/>
-    <col min="6" max="6" width="19.9904761904762" style="21" customWidth="1"/>
-    <col min="7" max="7" width="24.0761904761905" style="21" customWidth="1"/>
-    <col min="8" max="8" width="51.5714285714286" customWidth="1"/>
-    <col min="9" max="9" width="55" customWidth="1"/>
-    <col min="10" max="11" width="16.352380952381" customWidth="1"/>
-    <col min="12" max="12" width="9.28571428571429" customWidth="1"/>
-    <col min="14" max="14" width="31" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="12.8190476190476" customWidth="1"/>
+    <col min="2" max="2" width="11.1809523809524" customWidth="1"/>
+    <col min="3" max="3" width="14.1809523809524" customWidth="1"/>
+    <col min="4" max="4" width="22.2666666666667" customWidth="1"/>
+    <col min="5" max="5" width="11.7238095238095" customWidth="1"/>
+    <col min="6" max="6" width="20" style="22" customWidth="1"/>
+    <col min="7" max="7" width="24.1809523809524" style="22" customWidth="1"/>
+    <col min="8" max="8" width="51.5428571428571" customWidth="1"/>
+    <col min="9" max="10" width="55" customWidth="1"/>
+    <col min="11" max="12" width="16.2666666666667" customWidth="1"/>
+    <col min="13" max="13" width="9.26666666666667" customWidth="1"/>
+    <col min="15" max="15" width="31" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.4571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1673,10 +1829,10 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="22" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1685,7 +1841,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="27" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1697,563 +1853,598 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="22" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2" s="22"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="M2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="N2" s="21"/>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="22" t="s">
-        <v>21</v>
+      <c r="D3" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="K3" s="1"/>
-      <c r="L3" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="L3" s="1"/>
       <c r="M3" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="N3" s="21"/>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3" s="22"/>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
+        <v>18</v>
+      </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
+        <v>18</v>
+      </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" t="b">
-        <v>1</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
       <c r="M5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
+        <v>18</v>
+      </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" t="b">
-        <v>1</v>
-      </c>
-      <c r="M6" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>37</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
+        <v>18</v>
+      </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I7" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" t="b">
-        <v>1</v>
-      </c>
-      <c r="M7" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="13" customHeight="1" spans="1:13">
+        <v>41</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="13" customHeight="1" spans="1:14">
       <c r="A8" s="1"/>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
+        <v>44</v>
+      </c>
       <c r="H8" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" t="b">
-        <v>1</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
       <c r="M8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="N8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1"/>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
+        <v>49</v>
+      </c>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>51</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1"/>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="27"/>
+        <v>54</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>55</v>
+      </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="I10" t="s">
-        <v>48</v>
-      </c>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" ht="12" customHeight="1" spans="1:14">
+        <v>57</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="12" customHeight="1" spans="1:15">
       <c r="A11" s="1"/>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
+        <v>18</v>
+      </c>
       <c r="H11" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I11" t="s">
-        <v>51</v>
-      </c>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" t="b">
-        <v>1</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" s="20" customFormat="1" spans="1:15">
-      <c r="A12" s="23"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" t="b">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" s="21" customFormat="1" spans="1:16">
+      <c r="A12" s="24"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="N12" s="25"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="25"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1"/>
+      <c r="D13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="I12" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="M12" s="24"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="24"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="25"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>59</v>
+      <c r="F13" s="22" t="s">
+        <v>71</v>
       </c>
       <c r="H13" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="I13" t="s">
-        <v>61</v>
-      </c>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="25"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
+        <v>73</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1"/>
       <c r="D14" s="18" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H14" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="I14" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1"/>
+      <c r="D15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" t="s">
+        <v>81</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1"/>
+      <c r="D16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16" t="s">
+        <v>86</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1"/>
+      <c r="D17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" t="s">
+        <v>89</v>
+      </c>
+      <c r="I17" t="s">
+        <v>90</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1"/>
+      <c r="D18" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="H18" t="s">
+        <v>95</v>
+      </c>
+      <c r="I18" t="s">
+        <v>96</v>
+      </c>
+      <c r="J18" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" s="21" customFormat="1" spans="1:16">
+      <c r="A19" s="24"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" t="b">
-        <v>1</v>
-      </c>
-      <c r="M14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="25"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" t="s">
-        <v>66</v>
-      </c>
-      <c r="I15" t="s">
-        <v>67</v>
-      </c>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="25"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="H16" t="s">
-        <v>70</v>
-      </c>
-      <c r="I16" t="s">
-        <v>71</v>
-      </c>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="25"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" t="s">
-        <v>73</v>
-      </c>
-      <c r="I17" t="s">
-        <v>74</v>
-      </c>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="25"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="H18" t="s">
-        <v>78</v>
-      </c>
-      <c r="I18" t="s">
-        <v>79</v>
-      </c>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" s="20" customFormat="1" spans="1:15">
-      <c r="A19" s="23"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="30"/>
+      <c r="E19" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="32"/>
       <c r="K19" s="30"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="23"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
       <c r="O19" s="24"/>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="P19" s="25"/>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="D20" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="H20" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="I20" t="s">
-        <v>85</v>
-      </c>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" t="b">
-        <v>1</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
       <c r="M20" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="D21" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="E21" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="H21" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="I21" t="s">
-        <v>89</v>
-      </c>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" t="b">
-        <v>1</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
       <c r="M21" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="D22" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="E22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H22" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="I22" t="s">
-        <v>92</v>
-      </c>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" t="b">
-        <v>1</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
       <c r="M22" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="N22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1"/>
@@ -2298,27 +2489,27 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="25.8571428571429" style="1" customWidth="1"/>
-    <col min="3" max="4" width="32.2857142857143" customWidth="1"/>
-    <col min="5" max="5" width="13.1428571428571" customWidth="1"/>
-    <col min="6" max="6" width="21.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="13.7238095238095" customWidth="1"/>
+    <col min="2" max="2" width="25.8190476190476" style="1" customWidth="1"/>
+    <col min="3" max="5" width="32.2666666666667" customWidth="1"/>
+    <col min="6" max="6" width="13.1809523809524" customWidth="1"/>
+    <col min="7" max="7" width="21.4571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2326,465 +2517,550 @@
       <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="B2" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5">
+        <v>117</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="B3" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C10" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="E3" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" s="7" t="s">
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C4" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D4" s="3" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="7" t="s">
+      <c r="E4" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="C5" s="3" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" s="7" t="s">
+      <c r="D5" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="E5" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="D6" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="E6" s="17" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" s="7" t="s">
+      <c r="F6" s="5"/>
+      <c r="G6" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="C15" s="8" t="s">
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="C7" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="9" t="s">
-        <v>59</v>
+      <c r="D7" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>71</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="9" t="s">
-        <v>59</v>
+        <v>173</v>
+      </c>
+      <c r="D16" t="s">
+        <v>174</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>71</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="9" t="s">
-        <v>59</v>
+        <v>177</v>
+      </c>
+      <c r="D17" t="s">
+        <v>178</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>71</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="9" t="s">
-        <v>59</v>
+        <v>181</v>
+      </c>
+      <c r="D18" t="s">
+        <v>182</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>71</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>185</v>
+      </c>
+      <c r="D19" t="s">
+        <v>186</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="12" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>149</v>
+        <v>188</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="D20" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>190</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="12" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>152</v>
+        <v>192</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="D21" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>194</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="12" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>155</v>
+        <v>196</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="D22" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>198</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="12" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="D23" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>202</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="12"/>
       <c r="B24" s="15" t="s">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="D24" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>166</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="12"/>
       <c r="B25" s="16"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25" s="14"/>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="12"/>
-      <c r="E26" s="14"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="6"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="14"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="6"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="16"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="6"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="14"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="6"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="14"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="6"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="14"/>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F26" s="14"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="7"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="7"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="16"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="7"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="7"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="7"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="12"/>
       <c r="B32" s="13"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
-      <c r="E32" s="16"/>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="E32" s="14"/>
+      <c r="F32" s="16"/>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33" s="14"/>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="12"/>
       <c r="B34" s="13"/>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34" s="14"/>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="12"/>
       <c r="B35" s="13"/>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35" s="14"/>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="12"/>
       <c r="B36" s="13"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36" s="14"/>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="12"/>
       <c r="B37" s="13"/>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37" s="14"/>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="12"/>
       <c r="B38" s="13"/>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
-    </row>
-    <row r="40" spans="5:5">
-      <c r="E40" s="14"/>
-    </row>
-    <row r="41" spans="5:5">
-      <c r="E41" s="14"/>
-    </row>
-    <row r="42" spans="5:5">
-      <c r="E42" s="14"/>
-    </row>
-    <row r="43" spans="5:5">
-      <c r="E43" s="16"/>
-    </row>
-    <row r="44" spans="5:5">
-      <c r="E44" s="14"/>
-    </row>
-    <row r="45" spans="5:5">
-      <c r="E45" s="14"/>
-    </row>
-    <row r="46" spans="5:5">
-      <c r="E46" s="14"/>
-    </row>
-    <row r="47" spans="5:5">
-      <c r="E47" s="14"/>
-    </row>
-    <row r="48" spans="5:5">
-      <c r="E48" s="14"/>
+      <c r="F38" s="14"/>
+    </row>
+    <row r="40" spans="6:6">
+      <c r="F40" s="14"/>
+    </row>
+    <row r="41" spans="6:6">
+      <c r="F41" s="14"/>
+    </row>
+    <row r="42" spans="6:6">
+      <c r="F42" s="14"/>
+    </row>
+    <row r="43" spans="6:6">
+      <c r="F43" s="16"/>
+    </row>
+    <row r="44" spans="6:6">
+      <c r="F44" s="14"/>
+    </row>
+    <row r="45" spans="6:6">
+      <c r="F45" s="14"/>
+    </row>
+    <row r="46" spans="6:6">
+      <c r="F46" s="14"/>
+    </row>
+    <row r="47" spans="6:6">
+      <c r="F47" s="14"/>
+    </row>
+    <row r="48" spans="6:6">
+      <c r="F48" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2796,59 +3072,65 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="21.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="28.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="29.7142857142857" customWidth="1"/>
-    <col min="4" max="5" width="12.5714285714286" customWidth="1"/>
-    <col min="6" max="6" width="27" customWidth="1"/>
+    <col min="1" max="1" width="21.7238095238095" customWidth="1"/>
+    <col min="2" max="2" width="28.2666666666667" customWidth="1"/>
+    <col min="3" max="4" width="29.7238095238095" customWidth="1"/>
+    <col min="5" max="6" width="12.5428571428571" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>164</v>
+        <v>207</v>
       </c>
       <c r="C1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>167</v>
+        <v>208</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" t="s">
+        <v>210</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>211</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>213</v>
       </c>
       <c r="B2" t="s">
-        <v>170</v>
+        <v>214</v>
       </c>
       <c r="C2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>53</v>
+        <v>215</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>172</v>
+        <v>64</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/res/raw/pregnancy_outcome_form.xlsx
+++ b/app/src/main/res/raw/pregnancy_outcome_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14055" tabRatio="500"/>
+    <workbookView windowWidth="28650" windowHeight="12045" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -711,12 +711,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="28">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -754,36 +754,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -796,10 +770,17 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -818,6 +799,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -827,7 +823,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -841,8 +837,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -857,13 +854,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
@@ -871,10 +861,32 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -886,33 +898,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -960,175 +949,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1176,7 +1165,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1192,6 +1181,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1228,8 +1226,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1243,166 +1243,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1472,9 +1461,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1792,7 +1780,7 @@
   <sheetPr/>
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="J26" sqref="A5:J26"/>
     </sheetView>
   </sheetViews>
@@ -2158,11 +2146,11 @@
       <c r="I12" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="J12" s="29" t="s">
+      <c r="J12" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
       <c r="M12" s="25" t="b">
         <v>1</v>
       </c>
@@ -2311,7 +2299,7 @@
       <c r="I18" t="s">
         <v>96</v>
       </c>
-      <c r="J18" s="31" t="s">
+      <c r="J18" s="30" t="s">
         <v>97</v>
       </c>
       <c r="K18" s="28"/>
@@ -2334,9 +2322,9 @@
       <c r="G19" s="26"/>
       <c r="H19" s="25"/>
       <c r="I19" s="25"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
       <c r="M19" s="25"/>
       <c r="N19" s="25"/>
       <c r="O19" s="24"/>
@@ -2491,8 +2479,8 @@
   <sheetPr/>
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelCol="6"/>

--- a/app/src/main/res/raw/pregnancy_outcome_form.xlsx
+++ b/app/src/main/res/raw/pregnancy_outcome_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28650" windowHeight="12045" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12315" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="228">
   <si>
     <t>group</t>
   </si>
@@ -100,6 +100,9 @@
     <t>display_style</t>
   </si>
   <si>
+    <t>hidden</t>
+  </si>
+  <si>
     <t>header</t>
   </si>
   <si>
@@ -277,6 +280,12 @@
     <t>5.1. Type de résultat de la grossesse</t>
   </si>
   <si>
+    <t>childCollectedId</t>
+  </si>
+  <si>
+    <t>Child Collected Member Id</t>
+  </si>
+  <si>
     <t>childCode</t>
   </si>
   <si>
@@ -380,6 +389,27 @@
   </si>
   <si>
     <t>6.2. Date de la visite</t>
+  </si>
+  <si>
+    <t>collectedDeviceId</t>
+  </si>
+  <si>
+    <t>device_id</t>
+  </si>
+  <si>
+    <t>Device Id</t>
+  </si>
+  <si>
+    <t>collectedHouseholdId</t>
+  </si>
+  <si>
+    <t>Collected Household Id</t>
+  </si>
+  <si>
+    <t>collectedMemberId</t>
+  </si>
+  <si>
+    <t>Collected Member Id</t>
   </si>
   <si>
     <t>modules</t>
@@ -712,9 +742,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -754,6 +784,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Arial"/>
@@ -769,46 +814,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -822,6 +830,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Arial"/>
@@ -829,17 +875,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -853,31 +890,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -891,6 +906,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
@@ -898,7 +920,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -949,7 +979,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -961,13 +1033,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -979,13 +1093,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -997,25 +1111,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1027,97 +1147,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1170,6 +1200,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1181,15 +1220,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1246,152 +1276,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1454,6 +1484,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1462,6 +1495,7 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -1778,10 +1812,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="J26" sqref="A5:J26"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -1794,14 +1828,15 @@
     <col min="6" max="6" width="20" style="22" customWidth="1"/>
     <col min="7" max="7" width="24.1809523809524" style="22" customWidth="1"/>
     <col min="8" max="8" width="51.5428571428571" customWidth="1"/>
-    <col min="9" max="10" width="55" customWidth="1"/>
+    <col min="9" max="9" width="55" customWidth="1"/>
+    <col min="10" max="10" width="48.1619047619048" customWidth="1"/>
     <col min="11" max="12" width="16.2666666666667" customWidth="1"/>
     <col min="13" max="13" width="9.26666666666667" customWidth="1"/>
     <col min="15" max="15" width="31" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.4571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1829,7 +1864,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="28" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1847,30 +1882,33 @@
       <c r="O1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -1884,24 +1922,24 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -1915,25 +1953,25 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
+        <v>31</v>
+      </c>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
       <c r="M4" t="b">
         <v>1</v>
       </c>
@@ -1943,25 +1981,25 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
+        <v>35</v>
+      </c>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
       <c r="M5" t="b">
         <v>1</v>
       </c>
@@ -1971,25 +2009,25 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
+        <v>39</v>
+      </c>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
       <c r="M6" t="b">
         <v>1</v>
       </c>
@@ -1999,25 +2037,25 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
+        <v>43</v>
+      </c>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
       <c r="M7" t="b">
         <v>1</v>
       </c>
@@ -2028,22 +2066,22 @@
     <row r="8" ht="13" customHeight="1" spans="1:14">
       <c r="A8" s="1"/>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
+        <v>48</v>
+      </c>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
       <c r="M8" t="b">
         <v>1</v>
       </c>
@@ -2054,22 +2092,22 @@
     <row r="9" spans="1:13">
       <c r="A9" s="1"/>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
+        <v>53</v>
+      </c>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
       <c r="M9" t="b">
         <v>1</v>
       </c>
@@ -2077,25 +2115,25 @@
     <row r="10" spans="1:13">
       <c r="A10" s="1"/>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
+        <v>59</v>
+      </c>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
       <c r="M10" t="b">
         <v>1</v>
       </c>
@@ -2103,27 +2141,27 @@
     <row r="11" ht="12" customHeight="1" spans="1:15">
       <c r="A11" s="1"/>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
+        <v>63</v>
+      </c>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
       <c r="M11" t="b">
         <v>1</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" s="21" customFormat="1" spans="1:16">
@@ -2131,26 +2169,26 @@
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
       <c r="D12" s="25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26" t="s">
         <v>66</v>
       </c>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27" t="s">
+        <v>67</v>
+      </c>
       <c r="H12" s="25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I12" s="25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J12" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
+        <v>70</v>
+      </c>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
       <c r="M12" s="25" t="b">
         <v>1</v>
       </c>
@@ -2161,100 +2199,109 @@
     <row r="13" spans="1:13">
       <c r="A13" s="1"/>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
+        <v>75</v>
+      </c>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
       <c r="M13" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="1"/>
+    <row r="14" spans="1:17">
+      <c r="A14" s="26"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" t="s">
         <v>76</v>
       </c>
-      <c r="I14" t="s">
+      <c r="E14" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="I14" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="N14" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1"/>
+      <c r="D15" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" t="b">
-        <v>1</v>
-      </c>
-      <c r="N14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="1"/>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" t="s">
         <v>79</v>
       </c>
-      <c r="E15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>80</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
       <c r="M15" t="b">
+        <v>1</v>
+      </c>
+      <c r="N15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1"/>
       <c r="D16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" t="s">
         <v>83</v>
       </c>
-      <c r="E16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="22" t="s">
+      <c r="I16" t="s">
         <v>84</v>
       </c>
-      <c r="H16" t="s">
+      <c r="J16" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="I16" t="s">
-        <v>86</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
       <c r="M16" t="b">
         <v>1</v>
       </c>
@@ -2262,123 +2309,121 @@
     <row r="17" spans="1:13">
       <c r="A17" s="1"/>
       <c r="D17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" t="s">
         <v>88</v>
       </c>
-      <c r="E17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>89</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
       <c r="M17" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1"/>
-      <c r="D18" s="18" t="s">
+      <c r="D18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
         <v>92</v>
       </c>
-      <c r="E18" t="s">
+      <c r="I18" t="s">
         <v>93</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="J18" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H18" t="s">
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1"/>
+      <c r="D19" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="I18" t="s">
+      <c r="E19" t="s">
         <v>96</v>
       </c>
-      <c r="J18" s="30" t="s">
+      <c r="F19" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" s="21" customFormat="1" spans="1:16">
-      <c r="A19" s="24"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="25" t="s">
+      <c r="H19" t="s">
         <v>98</v>
       </c>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="31"/>
+      <c r="I19" t="s">
+        <v>99</v>
+      </c>
+      <c r="J19" s="32" t="s">
+        <v>100</v>
+      </c>
       <c r="K19" s="29"/>
       <c r="L19" s="29"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="25"/>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D20" t="s">
-        <v>100</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="M19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" s="21" customFormat="1" spans="1:16">
+      <c r="A20" s="24"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="H20" t="s">
-        <v>102</v>
-      </c>
-      <c r="I20" t="s">
-        <v>103</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" t="b">
-        <v>1</v>
-      </c>
-      <c r="N20" t="b">
-        <v>1</v>
-      </c>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="25"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" t="s">
+        <v>104</v>
+      </c>
+      <c r="H21" t="s">
         <v>105</v>
       </c>
-      <c r="E21" t="s">
+      <c r="I21" t="s">
         <v>106</v>
       </c>
-      <c r="H21" t="s">
+      <c r="J21" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="I21" t="s">
-        <v>108</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
       <c r="M21" t="b">
         <v>1</v>
       </c>
@@ -2388,63 +2433,184 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D22" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" t="s">
+        <v>109</v>
+      </c>
+      <c r="H22" t="s">
         <v>110</v>
       </c>
-      <c r="E22" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>111</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" t="b">
+        <v>1</v>
+      </c>
+      <c r="N22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" t="b">
-        <v>1</v>
-      </c>
-      <c r="N22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="1"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="1"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="1"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="1"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="E23" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" t="s">
+        <v>120</v>
+      </c>
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" t="s">
+        <v>121</v>
+      </c>
+      <c r="I26" t="s">
+        <v>122</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" t="b">
+        <v>1</v>
+      </c>
+      <c r="N26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1"/>
@@ -2466,6 +2632,18 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1"/>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.39375" footer="0.39375"/>
@@ -2477,27 +2655,28 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="13.7238095238095" customWidth="1"/>
     <col min="2" max="2" width="25.8190476190476" style="1" customWidth="1"/>
     <col min="3" max="5" width="32.2666666666667" customWidth="1"/>
     <col min="6" max="6" width="13.1809523809524" customWidth="1"/>
     <col min="7" max="7" width="21.4571428571429" customWidth="1"/>
+    <col min="8" max="8" width="12.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2514,405 +2693,411 @@
       <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B2" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B3" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="18" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="D16" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="D17" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="D18" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="D19" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="D20" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="D21" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="D22" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="D23" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="12"/>
       <c r="B24" s="15" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="D24" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3077,48 +3262,48 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="C1" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="E1" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="B2" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="C2" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/res/raw/pregnancy_outcome_form.xlsx
+++ b/app/src/main/res/raw/pregnancy_outcome_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12315" tabRatio="500"/>
+    <workbookView windowWidth="27795" windowHeight="12270" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -256,13 +256,13 @@
     <t>$child_outcomes</t>
   </si>
   <si>
-    <t>5. Child's Outcomes</t>
-  </si>
-  <si>
-    <t>5. Crianças Nascidas</t>
-  </si>
-  <si>
-    <t>5. Enfants nés</t>
+    <t>4. Child's Outcomes</t>
+  </si>
+  <si>
+    <t>4. Crianças Nascidas</t>
+  </si>
+  <si>
+    <t>4. Enfants nés</t>
   </si>
   <si>
     <t>outcomeType</t>
@@ -271,13 +271,13 @@
     <t>outcometypes</t>
   </si>
   <si>
-    <t>5.1. Outcome Type</t>
-  </si>
-  <si>
-    <t>5.1. Tipo de resultado da gravidez</t>
-  </si>
-  <si>
-    <t>5.1. Type de résultat de la grossesse</t>
+    <t>4.1. Outcome Type</t>
+  </si>
+  <si>
+    <t>4.1. Tipo de resultado da gravidez</t>
+  </si>
+  <si>
+    <t>4.1. Type de résultat de la grossesse</t>
   </si>
   <si>
     <t>childCollectedId</t>
@@ -289,25 +289,25 @@
     <t>childCode</t>
   </si>
   <si>
-    <t>5.2. Child's Code</t>
-  </si>
-  <si>
-    <t>5.2. Código da criança</t>
-  </si>
-  <si>
-    <t>5.2. Code de l'enfant</t>
+    <t>4.2. Child's Code</t>
+  </si>
+  <si>
+    <t>4.2. Código da criança</t>
+  </si>
+  <si>
+    <t>4.2. Code de l'enfant</t>
   </si>
   <si>
     <t>childName</t>
   </si>
   <si>
-    <t>5.3. Child's Name</t>
-  </si>
-  <si>
-    <t>5.3. Nome da criança</t>
-  </si>
-  <si>
-    <t>5.3. Nom de l'enfant</t>
+    <t>4.3. Child's Name</t>
+  </si>
+  <si>
+    <t>4.3. Nome da criança</t>
+  </si>
+  <si>
+    <t>4.3. Nom de l'enfant</t>
   </si>
   <si>
     <t>childGender</t>
@@ -316,25 +316,25 @@
     <t>genders</t>
   </si>
   <si>
-    <t>5.4. Child's Gender</t>
-  </si>
-  <si>
-    <t>5.4. Sexo da criança</t>
-  </si>
-  <si>
-    <t>5.4. Sexe de l'enfant</t>
+    <t>4.4. Child's Gender</t>
+  </si>
+  <si>
+    <t>4.4. Sexo da criança</t>
+  </si>
+  <si>
+    <t>4.4. Sexe de l'enfant</t>
   </si>
   <si>
     <t>childOrdinalPosition</t>
   </si>
   <si>
-    <t>5.5. What is the ordinal position of this child?</t>
-  </si>
-  <si>
-    <t>5.5. Qual é a posição ordinal desta criança?</t>
-  </si>
-  <si>
-    <t>5.5. Quelle est la position ordinale de cet enfant?</t>
+    <t>4.4. What is the ordinal position of this child?</t>
+  </si>
+  <si>
+    <t>4.4. Qual é a posição ordinal desta criança?</t>
+  </si>
+  <si>
+    <t>4.4. Quelle est la position ordinale de cet enfant?</t>
   </si>
   <si>
     <t>headRelationshipType</t>
@@ -346,13 +346,13 @@
     <t>relationships</t>
   </si>
   <si>
-    <t>5.6. Relationship with the Head of Household</t>
-  </si>
-  <si>
-    <t>5.6. Relação com o chefe do agregado</t>
-  </si>
-  <si>
-    <t>5.6. Relation avec le chef de ménage</t>
+    <t>4.6. Relationship with the Head of Household</t>
+  </si>
+  <si>
+    <t>4.6. Relação com o chefe do agregado</t>
+  </si>
+  <si>
+    <t>4.6. Relation avec le chef de ménage</t>
   </si>
   <si>
     <t>end repeat</t>
@@ -367,13 +367,13 @@
     <t>username</t>
   </si>
   <si>
-    <t>6.1. Collected By Fieldworker</t>
-  </si>
-  <si>
-    <t>6.1. Código do Inquiridor</t>
-  </si>
-  <si>
-    <t>6.1. Code de l'enquêteur</t>
+    <t>Collected By Fieldworker</t>
+  </si>
+  <si>
+    <t>Código do Inquiridor</t>
+  </si>
+  <si>
+    <t>Code de l'enquêteur</t>
   </si>
   <si>
     <t>collectedDate</t>
@@ -382,13 +382,13 @@
     <t>timestamp</t>
   </si>
   <si>
-    <t>6.2. Collected Date</t>
-  </si>
-  <si>
-    <t>6.2. Data da Visita</t>
-  </si>
-  <si>
-    <t>6.2. Date de la visite</t>
+    <t>Collected Date</t>
+  </si>
+  <si>
+    <t>Data da Visita</t>
+  </si>
+  <si>
+    <t>Date de la visite</t>
   </si>
   <si>
     <t>collectedDeviceId</t>
@@ -743,8 +743,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -784,14 +784,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -800,15 +792,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -817,29 +801,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -861,8 +822,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -876,15 +853,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -912,8 +888,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -921,9 +898,32 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -946,7 +946,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -967,7 +967,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -979,13 +1105,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -997,43 +1141,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1043,116 +1157,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1176,17 +1182,95 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color auto="1"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1239,6 +1323,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1254,174 +1358,169 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1487,7 +1586,27 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1497,7 +1616,18 @@
     <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1814,8 +1944,8 @@
   <sheetPr/>
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -1864,7 +1994,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="36" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1970,8 +2100,8 @@
       <c r="J4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
       <c r="M4" t="b">
         <v>1</v>
       </c>
@@ -1998,8 +2128,8 @@
       <c r="J5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
       <c r="M5" t="b">
         <v>1</v>
       </c>
@@ -2026,8 +2156,8 @@
       <c r="J6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
       <c r="M6" t="b">
         <v>1</v>
       </c>
@@ -2054,8 +2184,8 @@
       <c r="J7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
       <c r="M7" t="b">
         <v>1</v>
       </c>
@@ -2080,8 +2210,8 @@
       <c r="J8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
       <c r="M8" t="b">
         <v>1</v>
       </c>
@@ -2106,8 +2236,8 @@
       <c r="J9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
       <c r="M9" t="b">
         <v>1</v>
       </c>
@@ -2132,8 +2262,8 @@
       <c r="J10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
       <c r="M10" t="b">
         <v>1</v>
       </c>
@@ -2155,8 +2285,8 @@
       <c r="J11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
       <c r="M11" t="b">
         <v>1</v>
       </c>
@@ -2174,8 +2304,8 @@
       <c r="E12" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27" t="s">
+      <c r="F12" s="32"/>
+      <c r="G12" s="32" t="s">
         <v>67</v>
       </c>
       <c r="H12" s="25" t="s">
@@ -2187,8 +2317,8 @@
       <c r="J12" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
       <c r="M12" s="25" t="b">
         <v>1</v>
       </c>
@@ -2216,8 +2346,8 @@
       <c r="J13" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
       <c r="M13" t="b">
         <v>1</v>
       </c>
@@ -2243,8 +2373,8 @@
       <c r="J14" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
       <c r="M14" s="18" t="b">
         <v>1</v>
       </c>
@@ -2274,8 +2404,8 @@
       <c r="J15" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
       <c r="M15" t="b">
         <v>1</v>
       </c>
@@ -2300,8 +2430,8 @@
       <c r="J16" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
       <c r="M16" t="b">
         <v>1</v>
       </c>
@@ -2326,8 +2456,8 @@
       <c r="J17" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
       <c r="M17" t="b">
         <v>1</v>
       </c>
@@ -2349,8 +2479,8 @@
       <c r="J18" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
       <c r="M18" t="b">
         <v>1</v>
       </c>
@@ -2372,11 +2502,11 @@
       <c r="I19" t="s">
         <v>99</v>
       </c>
-      <c r="J19" s="32" t="s">
+      <c r="J19" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
       <c r="M19" t="b">
         <v>1</v>
       </c>
@@ -2391,76 +2521,90 @@
       <c r="E20" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
       <c r="H20" s="25"/>
       <c r="I20" s="25"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
       <c r="M20" s="25"/>
       <c r="N20" s="25"/>
       <c r="O20" s="24"/>
       <c r="P20" s="25"/>
     </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:17">
+      <c r="A21" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="D21" t="s">
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="H21" t="s">
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="28" t="s">
         <v>106</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" t="b">
-        <v>1</v>
-      </c>
-      <c r="N21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="1" t="s">
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="N21" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="O21" s="44"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="46"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="D22" t="s">
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="H22" t="s">
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="18" t="s">
         <v>111</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" t="b">
-        <v>1</v>
-      </c>
-      <c r="N22" t="b">
-        <v>1</v>
-      </c>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="N22" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="O22" s="26"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="47"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="29" t="s">
         <v>102</v>
       </c>
       <c r="B23" s="18"/>
@@ -2482,20 +2626,20 @@
       <c r="J23" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
       <c r="M23" s="18"/>
       <c r="N23" s="18" t="b">
         <v>1</v>
       </c>
       <c r="O23" s="18"/>
       <c r="P23" s="18"/>
-      <c r="Q23" s="18" t="b">
+      <c r="Q23" s="47" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="29" t="s">
         <v>102</v>
       </c>
       <c r="B24" s="18"/>
@@ -2517,20 +2661,20 @@
       <c r="J24" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
       <c r="M24" s="18"/>
       <c r="N24" s="18" t="b">
         <v>1</v>
       </c>
       <c r="O24" s="18"/>
       <c r="P24" s="18"/>
-      <c r="Q24" s="18" t="b">
+      <c r="Q24" s="47" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="29" t="s">
         <v>102</v>
       </c>
       <c r="B25" s="18"/>
@@ -2552,65 +2696,72 @@
       <c r="J25" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
       <c r="M25" s="18"/>
       <c r="N25" s="18" t="b">
         <v>1</v>
       </c>
       <c r="O25" s="18"/>
       <c r="P25" s="18"/>
-      <c r="Q25" s="18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="1" t="s">
+      <c r="Q25" s="47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="D26" t="s">
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="H26" t="s">
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="31" t="s">
         <v>122</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" t="b">
-        <v>1</v>
-      </c>
-      <c r="N26" t="b">
-        <v>1</v>
-      </c>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="N26" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="O26" s="45"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="48"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="1"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="1"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="1"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="1"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1"/>

--- a/app/src/main/res/raw/pregnancy_outcome_form.xlsx
+++ b/app/src/main/res/raw/pregnancy_outcome_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27795" windowHeight="12270" tabRatio="500"/>
+    <workbookView windowWidth="18045" windowHeight="12015" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="228">
   <si>
     <t>group</t>
   </si>
@@ -682,7 +682,7 @@
     <t>Chez la sage-femme traditionnelle</t>
   </si>
   <si>
-    <t>HEALTHCENTERCLINIC</t>
+    <t>HEALTH_CENTER_CLINIC</t>
   </si>
   <si>
     <t>Health Center or Clinic</t>
@@ -741,10 +741,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -784,6 +784,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -791,16 +807,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -831,6 +855,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
@@ -845,22 +883,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -881,6 +906,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Arial"/>
@@ -888,50 +928,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -946,7 +946,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -967,13 +967,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -991,13 +1003,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1009,19 +1093,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1033,19 +1123,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1057,31 +1135,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1093,67 +1147,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1275,6 +1269,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1323,11 +1332,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1343,180 +1358,159 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1593,10 +1587,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1606,7 +1600,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1618,16 +1612,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1944,8 +1938,8 @@
   <sheetPr/>
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12:J19"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -2808,8 +2802,8 @@
   <sheetPr/>
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75"/>
@@ -3237,7 +3231,9 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="12"/>
+      <c r="A24" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="B24" s="15" t="s">
         <v>214</v>
       </c>

--- a/app/src/main/res/raw/pregnancy_outcome_form.xlsx
+++ b/app/src/main/res/raw/pregnancy_outcome_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18045" windowHeight="12015" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="25830" windowHeight="9885" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="237">
   <si>
     <t>group</t>
   </si>
@@ -692,6 +692,33 @@
   </si>
   <si>
     <t>Centre de santé/clinique privée</t>
+  </si>
+  <si>
+    <t>birthingPlace</t>
+  </si>
+  <si>
+    <t>ON_THE_WAY</t>
+  </si>
+  <si>
+    <t>On the way to clinic/hospital</t>
+  </si>
+  <si>
+    <t>A caminho da clínica/hospital</t>
+  </si>
+  <si>
+    <t>En route vers la clinique/l'hôpital</t>
+  </si>
+  <si>
+    <t>PRIVATE_MAT_HOME</t>
+  </si>
+  <si>
+    <t>Private Maternity Home</t>
+  </si>
+  <si>
+    <t>Maternidade Privada</t>
+  </si>
+  <si>
+    <t>Maternité Privée</t>
   </si>
   <si>
     <t xml:space="preserve">OTHER </t>
@@ -741,10 +768,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -792,14 +819,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -807,19 +826,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -831,7 +841,23 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -848,21 +874,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -877,25 +896,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -907,15 +910,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -928,8 +924,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -967,7 +994,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -979,7 +1006,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -997,25 +1024,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1027,7 +1036,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1045,7 +1066,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1057,13 +1156,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1075,79 +1168,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1269,21 +1296,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1293,11 +1305,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1317,31 +1335,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1358,6 +1370,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1369,145 +1396,145 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2800,10 +2827,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:C24"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75"/>
@@ -3232,48 +3259,66 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="D24" t="s">
+        <v>217</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="B25" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="D25" t="s">
+        <v>221</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="D26" t="s">
         <v>176</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="12"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="12"/>
-      <c r="F26" s="14"/>
-    </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="7"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
       <c r="F27" s="14"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="7"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="16"/>
+      <c r="A28" s="12"/>
+      <c r="F28" s="14"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="7"/>
@@ -3289,7 +3334,7 @@
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
-      <c r="F30" s="14"/>
+      <c r="F30" s="16"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="7"/>
@@ -3300,19 +3345,19 @@
       <c r="F31" s="14"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="16"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="14"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
       <c r="F33" s="14"/>
     </row>
     <row r="34" spans="1:6">
@@ -3321,7 +3366,7 @@
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
+      <c r="F34" s="16"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="12"/>
@@ -3355,23 +3400,33 @@
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
     </row>
-    <row r="40" spans="6:6">
+    <row r="39" spans="1:6">
+      <c r="A39" s="12"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="12"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
       <c r="F40" s="14"/>
-    </row>
-    <row r="41" spans="6:6">
-      <c r="F41" s="14"/>
     </row>
     <row r="42" spans="6:6">
       <c r="F42" s="14"/>
     </row>
     <row r="43" spans="6:6">
-      <c r="F43" s="16"/>
+      <c r="F43" s="14"/>
     </row>
     <row r="44" spans="6:6">
       <c r="F44" s="14"/>
     </row>
     <row r="45" spans="6:6">
-      <c r="F45" s="14"/>
+      <c r="F45" s="16"/>
     </row>
     <row r="46" spans="6:6">
       <c r="F46" s="14"/>
@@ -3381,6 +3436,12 @@
     </row>
     <row r="48" spans="6:6">
       <c r="F48" s="14"/>
+    </row>
+    <row r="49" spans="6:6">
+      <c r="F49" s="14"/>
+    </row>
+    <row r="50" spans="6:6">
+      <c r="F50" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3409,39 +3470,39 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="C1" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="E1" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="B2" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="C2" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -3450,7 +3511,7 @@
         <v>65</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/res/raw/pregnancy_outcome_form.xlsx
+++ b/app/src/main/res/raw/pregnancy_outcome_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25830" windowHeight="9885" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="18045" windowHeight="6825" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="238">
   <si>
     <t>group</t>
   </si>
@@ -308,6 +308,9 @@
   </si>
   <si>
     <t>4.3. Nom de l'enfant</t>
+  </si>
+  <si>
+    <t>${outcomeType} = 'LBR'</t>
   </si>
   <si>
     <t>childGender</t>
@@ -768,10 +771,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -819,8 +822,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -834,23 +846,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -861,29 +864,6 @@
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -903,17 +883,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -925,16 +897,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -949,7 +913,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -959,6 +923,45 @@
       <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -994,13 +997,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1012,97 +1045,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1120,13 +1069,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1138,7 +1141,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1150,13 +1153,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1168,13 +1165,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1296,54 +1299,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1361,10 +1316,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1388,153 +1341,203 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1965,8 +1968,8 @@
   <sheetPr/>
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -1982,7 +1985,7 @@
     <col min="9" max="9" width="55" customWidth="1"/>
     <col min="10" max="10" width="48.1619047619048" customWidth="1"/>
     <col min="11" max="12" width="16.2666666666667" customWidth="1"/>
-    <col min="13" max="13" width="9.26666666666667" customWidth="1"/>
+    <col min="13" max="13" width="26.9333333333333" customWidth="1"/>
     <col min="15" max="15" width="31" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.4571428571429" customWidth="1"/>
   </cols>
@@ -2453,29 +2456,29 @@
       </c>
       <c r="K16" s="37"/>
       <c r="L16" s="37"/>
-      <c r="M16" t="b">
-        <v>1</v>
+      <c r="M16" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1"/>
       <c r="D17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E17" t="s">
         <v>55</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K17" s="37"/>
       <c r="L17" s="37"/>
@@ -2486,19 +2489,19 @@
     <row r="18" spans="1:13">
       <c r="A18" s="1"/>
       <c r="D18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E18" t="s">
         <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K18" s="37"/>
       <c r="L18" s="37"/>
@@ -2509,22 +2512,22 @@
     <row r="19" spans="1:13">
       <c r="A19" s="1"/>
       <c r="D19" s="18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J19" s="40" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K19" s="37"/>
       <c r="L19" s="37"/>
@@ -2540,7 +2543,7 @@
         <v>65</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
@@ -2556,26 +2559,26 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B21" s="28"/>
       <c r="C21" s="28"/>
       <c r="D21" s="28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F21" s="33"/>
       <c r="G21" s="33"/>
       <c r="H21" s="28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I21" s="28" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K21" s="42"/>
       <c r="L21" s="42"/>
@@ -2591,26 +2594,26 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
       <c r="D22" s="18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F22" s="34"/>
       <c r="G22" s="34"/>
       <c r="H22" s="18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K22" s="39"/>
       <c r="L22" s="39"/>
@@ -2626,26 +2629,26 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
       <c r="D23" s="18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
       <c r="H23" s="18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K23" s="39"/>
       <c r="L23" s="39"/>
@@ -2661,12 +2664,12 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
       <c r="D24" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E24" s="18" t="s">
         <v>19</v>
@@ -2674,13 +2677,13 @@
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
       <c r="H24" s="18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K24" s="39"/>
       <c r="L24" s="39"/>
@@ -2696,12 +2699,12 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
       <c r="D25" s="18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E25" s="18" t="s">
         <v>19</v>
@@ -2709,13 +2712,13 @@
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K25" s="39"/>
       <c r="L25" s="39"/>
@@ -2731,12 +2734,12 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="30" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B26" s="31"/>
       <c r="C26" s="31"/>
       <c r="D26" s="31" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E26" s="31" t="s">
         <v>19</v>
@@ -2744,13 +2747,13 @@
       <c r="F26" s="35"/>
       <c r="G26" s="35"/>
       <c r="H26" s="31" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I26" s="31" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K26" s="43"/>
       <c r="L26" s="43"/>
@@ -2829,8 +2832,8 @@
   <sheetPr/>
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75"/>
@@ -2848,7 +2851,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2874,251 +2877,251 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B2" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B3" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="18" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3126,16 +3129,16 @@
         <v>72</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D16" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3143,16 +3146,16 @@
         <v>72</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3160,16 +3163,16 @@
         <v>72</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3177,16 +3180,16 @@
         <v>72</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3194,16 +3197,16 @@
         <v>56</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D20" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3211,16 +3214,16 @@
         <v>56</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D21" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3228,16 +3231,16 @@
         <v>56</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D22" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3245,33 +3248,33 @@
         <v>56</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D23" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="12" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D24" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3279,16 +3282,16 @@
         <v>56</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D25" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3296,16 +3299,16 @@
         <v>56</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D26" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3470,39 +3473,39 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -3511,7 +3514,7 @@
         <v>65</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/res/raw/pregnancy_outcome_form.xlsx
+++ b/app/src/main/res/raw/pregnancy_outcome_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18045" windowHeight="6825" tabRatio="500"/>
+    <workbookView windowWidth="22725" windowHeight="8490" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="237">
   <si>
     <t>group</t>
   </si>
@@ -695,9 +695,6 @@
   </si>
   <si>
     <t>Centre de santé/clinique privée</t>
-  </si>
-  <si>
-    <t>birthingPlace</t>
   </si>
   <si>
     <t>ON_THE_WAY</t>
@@ -771,10 +768,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -822,9 +819,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -838,29 +841,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -876,56 +889,20 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Arial"/>
@@ -941,27 +918,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -997,7 +994,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1009,7 +1006,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1027,7 +1030,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1039,145 +1168,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1299,17 +1296,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1318,7 +1309,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1338,11 +1329,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1364,15 +1361,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1382,162 +1370,171 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1968,8 +1965,8 @@
   <sheetPr/>
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -2832,8 +2829,8 @@
   <sheetPr/>
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75"/>
@@ -3262,19 +3259,19 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="C24" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="D24" t="s">
         <v>217</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3282,16 +3279,16 @@
         <v>56</v>
       </c>
       <c r="B25" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="C25" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="D25" t="s">
         <v>221</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3299,10 +3296,10 @@
         <v>56</v>
       </c>
       <c r="B26" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="C26" s="14" t="s">
         <v>224</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>225</v>
       </c>
       <c r="D26" t="s">
         <v>177</v>
@@ -3473,39 +3470,39 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" t="s">
         <v>227</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" t="s">
         <v>229</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2" t="s">
         <v>233</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>234</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>236</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -3514,7 +3511,7 @@
         <v>65</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/res/raw/pregnancy_outcome_form.xlsx
+++ b/app/src/main/res/raw/pregnancy_outcome_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22725" windowHeight="8490" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="27795" windowHeight="12195" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -768,9 +768,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="28">
@@ -820,9 +820,40 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -833,11 +864,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -857,18 +887,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -881,7 +904,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -895,8 +918,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -910,53 +948,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1000,25 +1000,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1030,7 +1030,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1042,73 +1042,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1120,7 +1054,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1138,7 +1084,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1150,7 +1114,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1162,19 +1162,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1296,6 +1296,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1305,11 +1320,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1344,21 +1365,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1366,21 +1372,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1393,148 +1384,157 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1965,8 +1965,8 @@
   <sheetPr/>
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -2829,7 +2829,7 @@
   <sheetPr/>
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>

--- a/app/src/main/res/raw/pregnancy_outcome_form.xlsx
+++ b/app/src/main/res/raw/pregnancy_outcome_form.xlsx
@@ -21,7 +21,7 @@
     <author>paul</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="289">
   <si>
     <t>group</t>
   </si>
@@ -82,6 +82,9 @@
     <t>label::fr</t>
   </si>
   <si>
+    <t>label::am</t>
+  </si>
+  <si>
     <t>default_value</t>
   </si>
   <si>
@@ -121,6 +124,9 @@
     <t>1.0. Code de la visite</t>
   </si>
   <si>
+    <t xml:space="preserve">1.0. የጉብኝት ኮድ  </t>
+  </si>
+  <si>
     <t>code</t>
   </si>
   <si>
@@ -133,6 +139,9 @@
     <t>1.1. Code d'enregistrement de la grossesse</t>
   </si>
   <si>
+    <t xml:space="preserve">1.1. የእርግዝና ምዝገባ ኮድ  </t>
+  </si>
+  <si>
     <t>parents</t>
   </si>
   <si>
@@ -148,6 +157,9 @@
     <t>2.1. Code de la mère</t>
   </si>
   <si>
+    <t xml:space="preserve">2.1. የእናቱ ኮድ  </t>
+  </si>
+  <si>
     <t>motherName</t>
   </si>
   <si>
@@ -160,6 +172,9 @@
     <t>2.2. Nom de la mère</t>
   </si>
   <si>
+    <t xml:space="preserve">2.2. የእናቱ ስም  </t>
+  </si>
+  <si>
     <t>fatherCode</t>
   </si>
   <si>
@@ -172,6 +187,9 @@
     <t>2.3. Code du père</t>
   </si>
   <si>
+    <t xml:space="preserve">2.3. የአባቱ ኮድ  </t>
+  </si>
+  <si>
     <t>fatherName</t>
   </si>
   <si>
@@ -184,6 +202,9 @@
     <t>2.4. Le nom du père</t>
   </si>
   <si>
+    <t xml:space="preserve">2.4. የአባቱ ስም  </t>
+  </si>
+  <si>
     <t>numberOfOutcomes</t>
   </si>
   <si>
@@ -199,6 +220,9 @@
     <t>3.1. Nombre de bébés nés?</t>
   </si>
   <si>
+    <t xml:space="preserve">3.1. የውጤት ብዛት  </t>
+  </si>
+  <si>
     <t>outcomeDate</t>
   </si>
   <si>
@@ -214,6 +238,9 @@
     <t>3.2. Date d'accouchement/résultat de la grossesse?</t>
   </si>
   <si>
+    <t xml:space="preserve">3.2. የውጤት ቀን  </t>
+  </si>
+  <si>
     <t>birthPlace</t>
   </si>
   <si>
@@ -232,6 +259,9 @@
     <t>3.3. Où la naissance a-t-elle eu lieu?</t>
   </si>
   <si>
+    <t xml:space="preserve">3.3. ምርት የተከናወነበት ቦታ?  </t>
+  </si>
+  <si>
     <t>birthPlaceOther</t>
   </si>
   <si>
@@ -244,6 +274,9 @@
     <t>3.3.1. Précisez le lieu où a eu lieu la naissance</t>
   </si>
   <si>
+    <t xml:space="preserve">3.3.1. የምርት ቦታን ዝርዝር አሳይ  </t>
+  </si>
+  <si>
     <t>${birthPlace}='OTHER'</t>
   </si>
   <si>
@@ -265,6 +298,9 @@
     <t>4. Enfants nés</t>
   </si>
   <si>
+    <t xml:space="preserve">4. የሕፃኑ ውጤቶች  </t>
+  </si>
+  <si>
     <t>outcomeType</t>
   </si>
   <si>
@@ -280,12 +316,18 @@
     <t>4.1. Type de résultat de la grossesse</t>
   </si>
   <si>
+    <t xml:space="preserve">4.1. የውጤት አይነት  </t>
+  </si>
+  <si>
     <t>childCollectedId</t>
   </si>
   <si>
     <t>Child Collected Member Id</t>
   </si>
   <si>
+    <t xml:space="preserve">የሕፃኑ የተሰቀመ የአባል መታወቂያ  </t>
+  </si>
+  <si>
     <t>childCode</t>
   </si>
   <si>
@@ -298,6 +340,9 @@
     <t>4.2. Code de l'enfant</t>
   </si>
   <si>
+    <t xml:space="preserve">4.2. የሕፃኑ ኮድ  </t>
+  </si>
+  <si>
     <t>childName</t>
   </si>
   <si>
@@ -310,6 +355,9 @@
     <t>4.3. Nom de l'enfant</t>
   </si>
   <si>
+    <t xml:space="preserve">4.3. የሕፃኑ ስም  </t>
+  </si>
+  <si>
     <t>${outcomeType} = 'LBR'</t>
   </si>
   <si>
@@ -328,6 +376,9 @@
     <t>4.4. Sexe de l'enfant</t>
   </si>
   <si>
+    <t xml:space="preserve">4.4. የሕፃኑ ፆታ  </t>
+  </si>
+  <si>
     <t>childOrdinalPosition</t>
   </si>
   <si>
@@ -340,6 +391,9 @@
     <t>4.4. Quelle est la position ordinale de cet enfant?</t>
   </si>
   <si>
+    <t xml:space="preserve">4.4. የህፃኑ ቅደም ተከተል ቦታ ምንድነው?  </t>
+  </si>
+  <si>
     <t>headRelationshipType</t>
   </si>
   <si>
@@ -358,6 +412,9 @@
     <t>4.6. Relation avec le chef de ménage</t>
   </si>
   <si>
+    <t xml:space="preserve">4.6. ከቤተሰቡ አለቃ ጋር ያለው ዝምድና  </t>
+  </si>
+  <si>
     <t>end repeat</t>
   </si>
   <si>
@@ -379,6 +436,9 @@
     <t>Code de l'enquêteur</t>
   </si>
   <si>
+    <t xml:space="preserve">በመረጃ ባለሞያ ተከሰተ  </t>
+  </si>
+  <si>
     <t>collectedDate</t>
   </si>
   <si>
@@ -394,6 +454,9 @@
     <t>Date de la visite</t>
   </si>
   <si>
+    <t xml:space="preserve">ቀን ተከሰተ  </t>
+  </si>
+  <si>
     <t>collectedDeviceId</t>
   </si>
   <si>
@@ -403,18 +466,27 @@
     <t>Device Id</t>
   </si>
   <si>
+    <t xml:space="preserve">የመሳሪያ መታወቂያ  </t>
+  </si>
+  <si>
     <t>collectedHouseholdId</t>
   </si>
   <si>
     <t>Collected Household Id</t>
   </si>
   <si>
+    <t xml:space="preserve">የተከሰተው የቤተሰብ መታወቂያ  </t>
+  </si>
+  <si>
     <t>collectedMemberId</t>
   </si>
   <si>
     <t>Collected Member Id</t>
   </si>
   <si>
+    <t xml:space="preserve">የተከሰተው የአባል መታወቂያ  </t>
+  </si>
+  <si>
     <t>modules</t>
   </si>
   <si>
@@ -427,6 +499,9 @@
     <t>Accès aux modules autorisé</t>
   </si>
   <si>
+    <t>ለመድረሻዎች የተፈቀደ መዳረሻ</t>
+  </si>
+  <si>
     <t>value</t>
   </si>
   <si>
@@ -442,6 +517,9 @@
     <t>Oui</t>
   </si>
   <si>
+    <t xml:space="preserve">አዎን  </t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -451,6 +529,9 @@
     <t>Non</t>
   </si>
   <si>
+    <t xml:space="preserve">አይ  </t>
+  </si>
+  <si>
     <t>M</t>
   </si>
   <si>
@@ -463,6 +544,9 @@
     <t>Masculin</t>
   </si>
   <si>
+    <t xml:space="preserve">ወንድ  </t>
+  </si>
+  <si>
     <t>F</t>
   </si>
   <si>
@@ -475,6 +559,9 @@
     <t>Féminin</t>
   </si>
   <si>
+    <t xml:space="preserve">ሴት  </t>
+  </si>
+  <si>
     <t>UNK</t>
   </si>
   <si>
@@ -487,6 +574,9 @@
     <t>Inconnu</t>
   </si>
   <si>
+    <t xml:space="preserve">ያልታወቀ  </t>
+  </si>
+  <si>
     <t>${outcomeType}!='LBR'</t>
   </si>
   <si>
@@ -502,6 +592,9 @@
     <t>Chef de ménage</t>
   </si>
   <si>
+    <t xml:space="preserve">የቤተሰብ አለቃ  </t>
+  </si>
+  <si>
     <t>true</t>
   </si>
   <si>
@@ -517,6 +610,9 @@
     <t>Conjoint</t>
   </si>
   <si>
+    <t xml:space="preserve">ባል/ሚስት  </t>
+  </si>
+  <si>
     <t>SON</t>
   </si>
   <si>
@@ -529,6 +625,9 @@
     <t>Fils/fille</t>
   </si>
   <si>
+    <t xml:space="preserve">ልጅ  </t>
+  </si>
+  <si>
     <t>BRO</t>
   </si>
   <si>
@@ -541,6 +640,9 @@
     <t>Frère/Sœur</t>
   </si>
   <si>
+    <t xml:space="preserve">ወንድም/እህት  </t>
+  </si>
+  <si>
     <t>PAR</t>
   </si>
   <si>
@@ -553,6 +655,9 @@
     <t>Père/Mère</t>
   </si>
   <si>
+    <t xml:space="preserve">ወላጅ  </t>
+  </si>
+  <si>
     <t>GCH</t>
   </si>
   <si>
@@ -565,6 +670,9 @@
     <t>Petits-enfants</t>
   </si>
   <si>
+    <t xml:space="preserve">የልጅ ልጅ  </t>
+  </si>
+  <si>
     <t>NOR</t>
   </si>
   <si>
@@ -577,6 +685,9 @@
     <t>Aucune relation</t>
   </si>
   <si>
+    <t xml:space="preserve">ዝምድና የለውም  </t>
+  </si>
+  <si>
     <t>OTH</t>
   </si>
   <si>
@@ -589,6 +700,9 @@
     <t>Autre parent</t>
   </si>
   <si>
+    <t xml:space="preserve">ሌላ ዝምድና  </t>
+  </si>
+  <si>
     <t>DNK</t>
   </si>
   <si>
@@ -601,6 +715,9 @@
     <t>Ne sait pas</t>
   </si>
   <si>
+    <t xml:space="preserve">አያውቅም  </t>
+  </si>
+  <si>
     <t>LBR</t>
   </si>
   <si>
@@ -613,6 +730,9 @@
     <t>Né vivant</t>
   </si>
   <si>
+    <t xml:space="preserve">የተወለደ ህይወት በተሞላ  </t>
+  </si>
+  <si>
     <t>SBR</t>
   </si>
   <si>
@@ -625,6 +745,9 @@
     <t>Enfant mort-né</t>
   </si>
   <si>
+    <t xml:space="preserve">የተወለደ ግን ዕድል አልነበረውም (Stillbirth)  </t>
+  </si>
+  <si>
     <t>MIS</t>
   </si>
   <si>
@@ -637,6 +760,9 @@
     <t>Avortement spontané</t>
   </si>
   <si>
+    <t xml:space="preserve">ጠፍቷል (Miscarriage)  </t>
+  </si>
+  <si>
     <t>ABT</t>
   </si>
   <si>
@@ -649,6 +775,9 @@
     <t>Avortement provoqué</t>
   </si>
   <si>
+    <t xml:space="preserve">አቦርሽን  </t>
+  </si>
+  <si>
     <t>HOME</t>
   </si>
   <si>
@@ -661,6 +790,9 @@
     <t>À la maison</t>
   </si>
   <si>
+    <t xml:space="preserve">ቤት  </t>
+  </si>
+  <si>
     <t>HOSPITAL</t>
   </si>
   <si>
@@ -673,6 +805,9 @@
     <t>Unité sanitaire/Hôpital public</t>
   </si>
   <si>
+    <t xml:space="preserve">ሆስፒታል  </t>
+  </si>
+  <si>
     <t>TRADITIONAL_MIDWIFE</t>
   </si>
   <si>
@@ -685,6 +820,9 @@
     <t>Chez la sage-femme traditionnelle</t>
   </si>
   <si>
+    <t xml:space="preserve">የባህላዊ እርዳታ አብራሪ ቤት  </t>
+  </si>
+  <si>
     <t>HEALTH_CENTER_CLINIC</t>
   </si>
   <si>
@@ -697,6 +835,9 @@
     <t>Centre de santé/clinique privée</t>
   </si>
   <si>
+    <t xml:space="preserve">የጤና ማዕከል ወይም ክሊኒክ  </t>
+  </si>
+  <si>
     <t>ON_THE_WAY</t>
   </si>
   <si>
@@ -709,6 +850,9 @@
     <t>En route vers la clinique/l'hôpital</t>
   </si>
   <si>
+    <t xml:space="preserve">በክሊኒክ/ሆስፒታል መንገድ ላይ  </t>
+  </si>
+  <si>
     <t>PRIVATE_MAT_HOME</t>
   </si>
   <si>
@@ -721,12 +865,18 @@
     <t>Maternité Privée</t>
   </si>
   <si>
+    <t xml:space="preserve">የግል የህመምተኞች ማስተናገድ ቤት  </t>
+  </si>
+  <si>
     <t xml:space="preserve">OTHER </t>
   </si>
   <si>
     <t>Other</t>
   </si>
   <si>
+    <t>ሌላ</t>
+  </si>
+  <si>
     <t>form_id</t>
   </si>
   <si>
@@ -739,6 +889,9 @@
     <t>form_name::fr</t>
   </si>
   <si>
+    <t>form_name::am</t>
+  </si>
+  <si>
     <t>form_version</t>
   </si>
   <si>
@@ -758,6 +911,9 @@
   </si>
   <si>
     <t>Résultat de grossesse</t>
+  </si>
+  <si>
+    <t>የእርግዝና ውጤት</t>
   </si>
   <si>
     <t>rawPregnancyChild</t>
@@ -769,9 +925,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -820,24 +976,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -849,14 +990,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -864,10 +997,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -879,17 +1020,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -903,16 +1051,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -933,6 +1088,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Arial"/>
@@ -941,22 +1104,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -973,12 +1129,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -988,7 +1150,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
+        <fgColor theme="0" tint="-0.5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1006,7 +1168,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1018,7 +1228,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1030,37 +1300,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1072,25 +1312,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1102,84 +1336,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1252,19 +1414,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -1311,15 +1460,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1336,21 +1476,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1361,6 +1486,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1385,178 +1528,187 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1585,70 +1737,97 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1963,10 +2142,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -1976,18 +2155,19 @@
     <col min="3" max="3" width="14.1809523809524" customWidth="1"/>
     <col min="4" max="4" width="22.2666666666667" customWidth="1"/>
     <col min="5" max="5" width="11.7238095238095" customWidth="1"/>
-    <col min="6" max="6" width="20" style="22" customWidth="1"/>
-    <col min="7" max="7" width="24.1809523809524" style="22" customWidth="1"/>
+    <col min="6" max="6" width="20" style="28" customWidth="1"/>
+    <col min="7" max="7" width="24.1809523809524" style="28" customWidth="1"/>
     <col min="8" max="8" width="51.5428571428571" customWidth="1"/>
     <col min="9" max="9" width="55" customWidth="1"/>
     <col min="10" max="10" width="48.1619047619048" customWidth="1"/>
-    <col min="11" max="12" width="16.2666666666667" customWidth="1"/>
-    <col min="13" max="13" width="26.9333333333333" customWidth="1"/>
-    <col min="15" max="15" width="31" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.4571428571429" customWidth="1"/>
+    <col min="11" max="11" width="45.0857142857143" customWidth="1"/>
+    <col min="12" max="13" width="16.2666666666667" customWidth="1"/>
+    <col min="14" max="14" width="26.9333333333333" customWidth="1"/>
+    <col min="16" max="16" width="31" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.4571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2003,10 +2183,10 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="28" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -2015,7 +2195,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="42" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -2030,759 +2210,839 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="28" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2" s="28"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="N2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="O2" s="22"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="23" t="s">
-        <v>24</v>
+      <c r="D3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="L3" s="1"/>
-      <c r="M3" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="M3" s="1"/>
       <c r="N3" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="O3" s="22"/>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P3" s="28"/>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" t="b">
-        <v>1</v>
-      </c>
-      <c r="N4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" t="b">
-        <v>1</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="K5" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
       <c r="N5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" t="b">
-        <v>1</v>
-      </c>
-      <c r="N6" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>44</v>
+      </c>
+      <c r="K6" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" t="b">
+        <v>1</v>
+      </c>
+      <c r="O6" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" t="b">
-        <v>1</v>
-      </c>
-      <c r="N7" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="13" customHeight="1" spans="1:14">
+        <v>49</v>
+      </c>
+      <c r="K7" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" t="b">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="13" customHeight="1" spans="1:15">
       <c r="A8" s="1"/>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="I8" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" t="b">
-        <v>1</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="K8" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
       <c r="N8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="O8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1"/>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="H9" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="I9" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>61</v>
+      </c>
+      <c r="K9" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1"/>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>56</v>
+        <v>64</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>65</v>
       </c>
       <c r="H10" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="I10" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" ht="12" customHeight="1" spans="1:15">
+        <v>68</v>
+      </c>
+      <c r="K10" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="12" customHeight="1" spans="1:16">
       <c r="A11" s="1"/>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="I11" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" t="b">
-        <v>1</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" s="21" customFormat="1" spans="1:16">
-      <c r="A12" s="24"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="I12" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="J12" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="N12" s="25"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="25"/>
-    </row>
-    <row r="13" spans="1:13">
+        <v>73</v>
+      </c>
+      <c r="K11" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" s="27" customFormat="1" spans="1:17">
+      <c r="A12" s="29"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="O12" s="30"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="30"/>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1"/>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>72</v>
+        <v>64</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>84</v>
       </c>
       <c r="H13" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="I13" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="26"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="N14" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>87</v>
+      </c>
+      <c r="K13" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="31"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="I14" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="J14" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="O14" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1"/>
-      <c r="D15" s="18" t="s">
-        <v>78</v>
+      <c r="D15" s="32" t="s">
+        <v>92</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H15" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="I15" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" t="b">
-        <v>1</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="K15" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
       <c r="N15" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="O15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1"/>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H16" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="I16" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>100</v>
+      </c>
+      <c r="K16" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1"/>
       <c r="D17" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>88</v>
+        <v>64</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>104</v>
       </c>
       <c r="H17" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="I17" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>107</v>
+      </c>
+      <c r="K17" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1"/>
       <c r="D18" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H18" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="I18" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>112</v>
+      </c>
+      <c r="K18" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1"/>
-      <c r="D19" s="18" t="s">
-        <v>96</v>
+      <c r="D19" s="32" t="s">
+        <v>114</v>
       </c>
       <c r="E19" t="s">
-        <v>97</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>98</v>
+        <v>115</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>116</v>
       </c>
       <c r="H19" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="I19" t="s">
-        <v>100</v>
-      </c>
-      <c r="J19" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" s="21" customFormat="1" spans="1:16">
-      <c r="A20" s="24"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="25"/>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="I21" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="N21" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="O21" s="44"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="46"/>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="I22" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="N22" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="O22" s="26"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="47"/>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="I23" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="47" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="I24" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="47" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18" t="s">
+      <c r="J19" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="E25" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18" t="s">
+      <c r="K19" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="I25" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="47" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31" t="s">
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" s="27" customFormat="1" spans="1:17">
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="E26" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="31" t="s">
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="30"/>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="I26" s="31" t="s">
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="E21" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="N26" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="O26" s="45"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="48"/>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="I21" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="J21" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="K21" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="O21" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="58"/>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="I22" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="J22" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="K22" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="O22" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="59"/>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="I23" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="J23" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="K23" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="I24" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="J24" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="K24" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="I25" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="J25" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="K25" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="I26" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="J26" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="K26" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="37" t="b">
+        <v>1</v>
+      </c>
+      <c r="O26" s="37" t="b">
+        <v>1</v>
+      </c>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="60"/>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44"/>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="44"/>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="44"/>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="44"/>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1"/>
@@ -2827,10 +3087,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A18" sqref="$A16:$XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75"/>
@@ -2838,17 +3098,18 @@
     <col min="1" max="1" width="13.7238095238095" customWidth="1"/>
     <col min="2" max="2" width="25.8190476190476" style="1" customWidth="1"/>
     <col min="3" max="5" width="32.2666666666667" customWidth="1"/>
-    <col min="6" max="6" width="13.1809523809524" customWidth="1"/>
-    <col min="7" max="7" width="21.4571428571429" customWidth="1"/>
-    <col min="8" max="8" width="12.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="35.1428571428571" customWidth="1"/>
+    <col min="7" max="7" width="13.1809523809524" customWidth="1"/>
+    <col min="8" max="8" width="21.4571428571429" customWidth="1"/>
+    <col min="9" max="9" width="12.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2860,588 +3121,689 @@
         <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="B2" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6">
+        <v>154</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="B3" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="18" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="E9" s="20" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B10" s="8" t="s">
+      <c r="F3" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="C4" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="D4" s="4" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B11" s="8" t="s">
+      <c r="E4" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="F4" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="C5" s="4" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12" s="8" t="s">
+      <c r="D5" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="E5" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="F5" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B13" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="D6" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="E6" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="F6" s="20" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B14" s="8" t="s">
+      <c r="G6" s="6"/>
+      <c r="H6" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="C14" s="9" t="s">
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="C7" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="D7" s="4" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15" s="8" t="s">
+      <c r="E7" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="F7" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="G7" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="E15" s="20" t="s">
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="C8" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>184</v>
+        <v>84</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>223</v>
       </c>
       <c r="D16" t="s">
-        <v>185</v>
+        <v>224</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>225</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>188</v>
+        <v>84</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>228</v>
       </c>
       <c r="D17" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>230</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>192</v>
+        <v>84</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>233</v>
       </c>
       <c r="D18" t="s">
-        <v>193</v>
+        <v>234</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>235</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>196</v>
+        <v>84</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>238</v>
       </c>
       <c r="D19" t="s">
-        <v>197</v>
+        <v>239</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>200</v>
+        <v>240</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>243</v>
       </c>
       <c r="D20" t="s">
-        <v>201</v>
+        <v>244</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>204</v>
+        <v>245</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>248</v>
       </c>
       <c r="D21" t="s">
-        <v>205</v>
+        <v>249</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>208</v>
+        <v>250</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>253</v>
       </c>
       <c r="D22" t="s">
-        <v>209</v>
+        <v>254</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>212</v>
+        <v>255</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>258</v>
       </c>
       <c r="D23" t="s">
-        <v>213</v>
+        <v>259</v>
       </c>
       <c r="E23" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="D24" t="s">
+        <v>264</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="D25" t="s">
+        <v>269</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="D26" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="15" t="s">
+      <c r="E26" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C24" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="D24" t="s">
-        <v>217</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="D25" t="s">
-        <v>221</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="D26" t="s">
-        <v>177</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="12"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="12"/>
-      <c r="F28" s="14"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="7"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="14"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="7"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="16"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="7"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="14"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="7"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="14"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="7"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="14"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="12"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="16"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="12"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="12"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="12"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="12"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="12"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="12"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-    </row>
-    <row r="42" spans="6:6">
-      <c r="F42" s="14"/>
-    </row>
-    <row r="43" spans="6:6">
-      <c r="F43" s="14"/>
-    </row>
-    <row r="44" spans="6:6">
-      <c r="F44" s="14"/>
-    </row>
-    <row r="45" spans="6:6">
-      <c r="F45" s="16"/>
-    </row>
-    <row r="46" spans="6:6">
-      <c r="F46" s="14"/>
-    </row>
-    <row r="47" spans="6:6">
-      <c r="F47" s="14"/>
-    </row>
-    <row r="48" spans="6:6">
-      <c r="F48" s="14"/>
-    </row>
-    <row r="49" spans="6:6">
-      <c r="F49" s="14"/>
-    </row>
-    <row r="50" spans="6:6">
-      <c r="F50" s="14"/>
+      <c r="F26" s="25" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="13"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="13"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="8"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="8"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="8"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="8"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="8"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="13"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="13"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="13"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="13"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="13"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="13"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+    </row>
+    <row r="42" spans="6:7">
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+    </row>
+    <row r="43" spans="6:7">
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+    </row>
+    <row r="44" spans="6:7">
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+    </row>
+    <row r="45" spans="6:7">
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+    </row>
+    <row r="46" spans="6:7">
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+    </row>
+    <row r="47" spans="6:7">
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+    </row>
+    <row r="48" spans="6:7">
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+    </row>
+    <row r="49" spans="6:7">
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+    </row>
+    <row r="50" spans="6:7">
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3453,65 +3815,72 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="21.7238095238095" customWidth="1"/>
     <col min="2" max="2" width="28.2666666666667" customWidth="1"/>
     <col min="3" max="4" width="29.7238095238095" customWidth="1"/>
-    <col min="5" max="6" width="12.5428571428571" customWidth="1"/>
-    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="5" max="5" width="34.7428571428571" customWidth="1"/>
+    <col min="6" max="7" width="12.5428571428571" customWidth="1"/>
+    <col min="8" max="8" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>275</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>226</v>
+        <v>276</v>
       </c>
       <c r="C1" t="s">
-        <v>227</v>
+        <v>277</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>228</v>
+        <v>278</v>
       </c>
       <c r="E1" t="s">
-        <v>229</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>230</v>
+        <v>279</v>
+      </c>
+      <c r="F1" t="s">
+        <v>280</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>281</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>232</v>
+        <v>283</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>284</v>
       </c>
       <c r="C2" t="s">
-        <v>234</v>
+        <v>285</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>65</v>
+        <v>286</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>236</v>
+        <v>76</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/res/raw/pregnancy_outcome_form.xlsx
+++ b/app/src/main/res/raw/pregnancy_outcome_form.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="290">
   <si>
     <t>group</t>
   </si>
@@ -413,6 +413,9 @@
   </si>
   <si>
     <t xml:space="preserve">4.6. ከቤተሰቡ አለቃ ጋር ያለው ዝምድና  </t>
+  </si>
+  <si>
+    <t>call:isInstitutionalHousehold() = 'false'</t>
   </si>
   <si>
     <t>end repeat</t>
@@ -924,10 +927,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -976,7 +979,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -998,46 +1054,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1052,30 +1077,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1089,10 +1092,17 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1104,15 +1114,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1129,7 +1132,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1156,13 +1159,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC5D9F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1180,13 +1279,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1198,13 +1321,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1216,127 +1333,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1445,6 +1454,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1461,16 +1494,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1493,17 +1535,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1518,172 +1551,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1754,9 +1763,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1819,6 +1825,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2144,8 +2153,8 @@
   <sheetPr/>
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K26"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -2155,8 +2164,8 @@
     <col min="3" max="3" width="14.1809523809524" customWidth="1"/>
     <col min="4" max="4" width="22.2666666666667" customWidth="1"/>
     <col min="5" max="5" width="11.7238095238095" customWidth="1"/>
-    <col min="6" max="6" width="20" style="28" customWidth="1"/>
-    <col min="7" max="7" width="24.1809523809524" style="28" customWidth="1"/>
+    <col min="6" max="6" width="20" style="27" customWidth="1"/>
+    <col min="7" max="7" width="24.1809523809524" style="27" customWidth="1"/>
     <col min="8" max="8" width="51.5428571428571" customWidth="1"/>
     <col min="9" max="9" width="55" customWidth="1"/>
     <col min="10" max="10" width="48.1619047619048" customWidth="1"/>
@@ -2183,10 +2192,10 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="27" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -2195,7 +2204,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="41" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -2213,7 +2222,7 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="28" t="s">
+      <c r="P1" s="27" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
@@ -2255,7 +2264,7 @@
       <c r="O2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="P2" s="28"/>
+      <c r="P2" s="27"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
@@ -2289,7 +2298,7 @@
       <c r="O3" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="P3" s="28"/>
+      <c r="P3" s="27"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
@@ -2310,11 +2319,11 @@
       <c r="J4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="43" t="s">
+      <c r="K4" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
       <c r="N4" t="b">
         <v>1</v>
       </c>
@@ -2341,11 +2350,11 @@
       <c r="J5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="43" t="s">
+      <c r="K5" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
       <c r="N5" t="b">
         <v>1</v>
       </c>
@@ -2372,11 +2381,11 @@
       <c r="J6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="43" t="s">
+      <c r="K6" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
       <c r="N6" t="b">
         <v>1</v>
       </c>
@@ -2403,11 +2412,11 @@
       <c r="J7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K7" s="43" t="s">
+      <c r="K7" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
       <c r="N7" t="b">
         <v>1</v>
       </c>
@@ -2432,11 +2441,11 @@
       <c r="J8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="K8" s="43" t="s">
+      <c r="K8" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
       <c r="N8" t="b">
         <v>1</v>
       </c>
@@ -2461,11 +2470,11 @@
       <c r="J9" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K9" s="43" t="s">
+      <c r="K9" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
       <c r="N9" t="b">
         <v>1</v>
       </c>
@@ -2478,7 +2487,7 @@
       <c r="E10" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="27" t="s">
         <v>65</v>
       </c>
       <c r="H10" t="s">
@@ -2490,11 +2499,11 @@
       <c r="J10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K10" s="43" t="s">
+      <c r="K10" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
       <c r="N10" t="b">
         <v>1</v>
       </c>
@@ -2516,11 +2525,11 @@
       <c r="J11" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="43" t="s">
+      <c r="K11" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
       <c r="N11" t="b">
         <v>1</v>
       </c>
@@ -2528,40 +2537,40 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" s="27" customFormat="1" spans="1:17">
-      <c r="A12" s="29"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30" t="s">
+    <row r="12" s="26" customFormat="1" spans="1:17">
+      <c r="A12" s="28"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38" t="s">
+      <c r="F12" s="37"/>
+      <c r="G12" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="H12" s="30" t="s">
+      <c r="H12" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="I12" s="30" t="s">
+      <c r="I12" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="J12" s="45" t="s">
+      <c r="J12" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="K12" s="46" t="s">
+      <c r="K12" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="O12" s="30"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="30"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="O12" s="29"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="29"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1"/>
@@ -2571,7 +2580,7 @@
       <c r="E13" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="27" t="s">
         <v>84</v>
       </c>
       <c r="H13" t="s">
@@ -2583,56 +2592,56 @@
       <c r="J13" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="K13" s="43" t="s">
+      <c r="K13" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
       <c r="N13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="31"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32" t="s">
+      <c r="A14" s="30"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32" t="s">
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="I14" s="32" t="s">
+      <c r="I14" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="J14" s="32" t="s">
+      <c r="J14" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="K14" s="48" t="s">
+      <c r="K14" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="O14" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32" t="b">
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="O14" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1"/>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="31" t="s">
         <v>92</v>
       </c>
       <c r="E15" t="s">
@@ -2647,11 +2656,11 @@
       <c r="J15" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="K15" s="43" t="s">
+      <c r="K15" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
       <c r="N15" t="b">
         <v>1</v>
       </c>
@@ -2676,11 +2685,11 @@
       <c r="J16" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K16" s="43" t="s">
+      <c r="K16" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
       <c r="N16" s="1" t="s">
         <v>102</v>
       </c>
@@ -2693,7 +2702,7 @@
       <c r="E17" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="28" t="s">
+      <c r="F17" s="27" t="s">
         <v>104</v>
       </c>
       <c r="H17" t="s">
@@ -2705,11 +2714,11 @@
       <c r="J17" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="K17" s="43" t="s">
+      <c r="K17" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
       <c r="N17" t="b">
         <v>1</v>
       </c>
@@ -2731,24 +2740,24 @@
       <c r="J18" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="K18" s="43" t="s">
+      <c r="K18" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
       <c r="N18" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:16">
       <c r="A19" s="1"/>
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="31" t="s">
         <v>114</v>
       </c>
       <c r="E19" t="s">
         <v>115</v>
       </c>
-      <c r="F19" s="28" t="s">
+      <c r="F19" s="27" t="s">
         <v>116</v>
       </c>
       <c r="H19" t="s">
@@ -2757,292 +2766,295 @@
       <c r="I19" t="s">
         <v>118</v>
       </c>
-      <c r="J19" s="50" t="s">
+      <c r="J19" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="K19" s="43" t="s">
+      <c r="K19" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="L19" s="44"/>
-      <c r="M19" s="44"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
       <c r="N19" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" s="27" customFormat="1" spans="1:17">
-      <c r="A20" s="29"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30" t="s">
+      <c r="P19" s="55" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" s="26" customFormat="1" spans="1:17">
+      <c r="A20" s="28"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="30"/>
+      <c r="E20" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="29"/>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34" t="s">
+      <c r="A21" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="E21" s="34" t="s">
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="34" t="s">
+      <c r="E21" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="I21" s="34" t="s">
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="J21" s="51" t="s">
+      <c r="I21" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="K21" s="52" t="s">
+      <c r="J21" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="O21" s="34" t="b">
+      <c r="K21" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="O21" s="33" t="b">
         <v>1</v>
       </c>
       <c r="P21" s="56"/>
-      <c r="Q21" s="34"/>
+      <c r="Q21" s="33"/>
       <c r="R21" s="58"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="E22" s="32" t="s">
+      <c r="A22" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="32" t="s">
+      <c r="E22" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="I22" s="32" t="s">
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="J22" s="51" t="s">
+      <c r="I22" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="K22" s="48" t="s">
+      <c r="J22" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="O22" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="32"/>
+      <c r="K22" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="O22" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="31"/>
       <c r="R22" s="59"/>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="E23" s="32" t="s">
+      <c r="A23" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32" t="s">
+      <c r="E23" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="I23" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="J23" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="K23" s="48" t="s">
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="32"/>
+      <c r="I23" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="J23" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="K23" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
       <c r="R23" s="59" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="E24" s="32" t="s">
+      <c r="A24" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="E24" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="I24" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="J24" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="K24" s="48" t="s">
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="32"/>
+      <c r="I24" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="J24" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="K24" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="L24" s="48"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
       <c r="R24" s="59" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="E25" s="32" t="s">
+      <c r="A25" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="E25" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="I25" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="J25" s="51" t="s">
-        <v>143</v>
-      </c>
-      <c r="K25" s="48" t="s">
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="32"/>
+      <c r="I25" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="J25" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="K25" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
       <c r="R25" s="59" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="E26" s="37" t="s">
+      <c r="A26" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="E26" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="I26" s="37" t="s">
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="J26" s="51" t="s">
+      <c r="I26" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="K26" s="54" t="s">
+      <c r="J26" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="L26" s="55"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="37" t="b">
-        <v>1</v>
-      </c>
-      <c r="O26" s="37" t="b">
+      <c r="K26" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="36" t="b">
+        <v>1</v>
+      </c>
+      <c r="O26" s="36" t="b">
         <v>1</v>
       </c>
       <c r="P26" s="57"/>
-      <c r="Q26" s="37"/>
+      <c r="Q26" s="36"/>
       <c r="R26" s="60"/>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="44"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="44"/>
-      <c r="M28" s="44"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="44"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="44"/>
-      <c r="M30" s="44"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1"/>
@@ -3109,7 +3121,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -3138,43 +3150,43 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B2" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B3" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -3183,19 +3195,19 @@
         <v>104</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G4" s="4"/>
     </row>
@@ -3204,19 +3216,19 @@
         <v>104</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -3225,23 +3237,23 @@
         <v>104</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3249,22 +3261,22 @@
         <v>116</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3272,19 +3284,19 @@
         <v>116</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="F8" s="25" t="s">
         <v>186</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3292,19 +3304,19 @@
         <v>116</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="F9" s="25" t="s">
         <v>191</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3312,19 +3324,19 @@
         <v>116</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="F10" s="25" t="s">
         <v>196</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3332,19 +3344,19 @@
         <v>116</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="F11" s="25" t="s">
         <v>201</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3352,19 +3364,19 @@
         <v>116</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="F12" s="25" t="s">
         <v>206</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3372,19 +3384,19 @@
         <v>116</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="F13" s="25" t="s">
         <v>211</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3392,19 +3404,19 @@
         <v>116</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="F14" s="25" t="s">
         <v>216</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3412,19 +3424,19 @@
         <v>116</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>220</v>
-      </c>
-      <c r="F15" s="25" t="s">
         <v>221</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3432,19 +3444,19 @@
         <v>84</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D16" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="F16" s="25" t="s">
         <v>226</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3452,19 +3464,19 @@
         <v>84</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D17" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="F17" s="25" t="s">
         <v>231</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3472,19 +3484,19 @@
         <v>84</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D18" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="F18" s="25" t="s">
         <v>236</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3492,19 +3504,19 @@
         <v>84</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D19" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F19" s="25" t="s">
         <v>241</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3512,19 +3524,19 @@
         <v>65</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D20" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="F20" s="25" t="s">
         <v>246</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3532,19 +3544,19 @@
         <v>65</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D21" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="F21" s="25" t="s">
         <v>251</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3552,19 +3564,19 @@
         <v>65</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D22" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="F22" s="25" t="s">
         <v>256</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3572,19 +3584,19 @@
         <v>65</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D23" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="F23" s="25" t="s">
         <v>261</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3592,19 +3604,19 @@
         <v>65</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D24" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="F24" s="25" t="s">
         <v>266</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3612,19 +3624,19 @@
         <v>65</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D25" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="F25" s="25" t="s">
         <v>271</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3632,19 +3644,19 @@
         <v>65</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D26" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="F26" s="25" t="s">
-        <v>274</v>
+        <v>216</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3652,7 +3664,7 @@
       <c r="B27" s="17"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="25"/>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
     </row>
@@ -3833,45 +3845,45 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -3880,7 +3892,7 @@
         <v>76</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
